--- a/Bases_de_Dados_(2022-2023)/Romania Liga II_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga II_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="282">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -619,6 +619,24 @@
     <t>['11', '17', '44']</t>
   </si>
   <si>
+    <t>['80']</t>
+  </si>
+  <si>
+    <t>['45+1', '49', '60']</t>
+  </si>
+  <si>
+    <t>['45']</t>
+  </si>
+  <si>
+    <t>['45+3']</t>
+  </si>
+  <si>
+    <t>['28', '79']</t>
+  </si>
+  <si>
+    <t>['40', '89']</t>
+  </si>
+  <si>
     <t>['27']</t>
   </si>
   <si>
@@ -668,9 +686,6 @@
   </si>
   <si>
     <t>['31', '58', '77']</t>
-  </si>
-  <si>
-    <t>['45']</t>
   </si>
   <si>
     <t>['44', '66']</t>
@@ -775,9 +790,6 @@
     <t>['6', '11']</t>
   </si>
   <si>
-    <t>['80']</t>
-  </si>
-  <si>
     <t>['50', '87']</t>
   </si>
   <si>
@@ -833,6 +845,21 @@
   </si>
   <si>
     <t>['10', '15', '83']</t>
+  </si>
+  <si>
+    <t>['68', '90+2']</t>
+  </si>
+  <si>
+    <t>['86']</t>
+  </si>
+  <si>
+    <t>['56', '81']</t>
+  </si>
+  <si>
+    <t>['34', '66']</t>
+  </si>
+  <si>
+    <t>['34', '52', '84']</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1221,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK181"/>
+  <dimension ref="A1:BK191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1438,7 +1465,7 @@
         <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1716,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT3">
         <v>0.6</v>
@@ -1910,7 +1937,7 @@
         <v>1.5</v>
       </c>
       <c r="AT4">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2011,7 +2038,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -2202,7 +2229,7 @@
         <v>88</v>
       </c>
       <c r="P6" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2393,7 +2420,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -3435,10 +3462,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT12">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3629,7 +3656,7 @@
         <v>1.5</v>
       </c>
       <c r="AT13">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU13">
         <v>1.12</v>
@@ -3730,7 +3757,7 @@
         <v>85</v>
       </c>
       <c r="P14" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3817,10 +3844,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT14">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4008,10 +4035,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT15">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4112,7 +4139,7 @@
         <v>94</v>
       </c>
       <c r="P16" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -4199,10 +4226,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT16">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4303,7 +4330,7 @@
         <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q17">
         <v>1</v>
@@ -4390,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT17">
         <v>1.56</v>
@@ -4494,7 +4521,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4581,10 +4608,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT18">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -4876,7 +4903,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4963,10 +4990,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT20">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5067,7 +5094,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q21">
         <v>8</v>
@@ -5154,10 +5181,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT21">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU21">
         <v>0</v>
@@ -5345,7 +5372,7 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT22">
         <v>0.8</v>
@@ -5536,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT23">
         <v>0.3</v>
@@ -5640,7 +5667,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5831,7 +5858,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q25">
         <v>5</v>
@@ -6112,7 +6139,7 @@
         <v>0.9</v>
       </c>
       <c r="AT26">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU26">
         <v>0.9399999999999999</v>
@@ -6404,7 +6431,7 @@
         <v>103</v>
       </c>
       <c r="P28" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -6494,7 +6521,7 @@
         <v>0.8</v>
       </c>
       <c r="AT28">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU28">
         <v>1.04</v>
@@ -6786,7 +6813,7 @@
         <v>105</v>
       </c>
       <c r="P30" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q30">
         <v>5</v>
@@ -6977,7 +7004,7 @@
         <v>85</v>
       </c>
       <c r="P31" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -7258,7 +7285,7 @@
         <v>1.5</v>
       </c>
       <c r="AT32">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU32">
         <v>1.41</v>
@@ -7637,7 +7664,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT34">
         <v>0.6</v>
@@ -7828,7 +7855,7 @@
         <v>3</v>
       </c>
       <c r="AS35">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT35">
         <v>1.56</v>
@@ -8022,7 +8049,7 @@
         <v>0.9</v>
       </c>
       <c r="AT36">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU36">
         <v>1.77</v>
@@ -8123,7 +8150,7 @@
         <v>109</v>
       </c>
       <c r="P37" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8210,10 +8237,10 @@
         <v>3</v>
       </c>
       <c r="AS37">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT37">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU37">
         <v>1.2</v>
@@ -8314,7 +8341,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q38">
         <v>4</v>
@@ -8401,10 +8428,10 @@
         <v>3</v>
       </c>
       <c r="AS38">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT38">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU38">
         <v>1.07</v>
@@ -8505,7 +8532,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="Q39">
         <v>5</v>
@@ -8592,10 +8619,10 @@
         <v>0</v>
       </c>
       <c r="AS39">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT39">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU39">
         <v>1.39</v>
@@ -8696,7 +8723,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -8783,10 +8810,10 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT40">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU40">
         <v>1.62</v>
@@ -8887,7 +8914,7 @@
         <v>85</v>
       </c>
       <c r="P41" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -8974,10 +9001,10 @@
         <v>3</v>
       </c>
       <c r="AS41">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT41">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU41">
         <v>2.11</v>
@@ -9078,7 +9105,7 @@
         <v>113</v>
       </c>
       <c r="P42" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9269,7 +9296,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q43">
         <v>4</v>
@@ -9356,7 +9383,7 @@
         <v>0.5</v>
       </c>
       <c r="AS43">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT43">
         <v>0.8</v>
@@ -9460,7 +9487,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q44">
         <v>11</v>
@@ -9651,7 +9678,7 @@
         <v>85</v>
       </c>
       <c r="P45" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q45">
         <v>15</v>
@@ -9738,7 +9765,7 @@
         <v>1.5</v>
       </c>
       <c r="AS45">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT45">
         <v>1.2</v>
@@ -9842,7 +9869,7 @@
         <v>116</v>
       </c>
       <c r="P46" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q46">
         <v>13</v>
@@ -9932,7 +9959,7 @@
         <v>0.8</v>
       </c>
       <c r="AT46">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU46">
         <v>1.17</v>
@@ -10123,7 +10150,7 @@
         <v>1.5</v>
       </c>
       <c r="AT47">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU47">
         <v>1.52</v>
@@ -10224,7 +10251,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q48">
         <v>6</v>
@@ -10311,7 +10338,7 @@
         <v>2</v>
       </c>
       <c r="AS48">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT48">
         <v>1.4</v>
@@ -10505,7 +10532,7 @@
         <v>2.6</v>
       </c>
       <c r="AT49">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU49">
         <v>1.49</v>
@@ -10606,7 +10633,7 @@
         <v>85</v>
       </c>
       <c r="P50" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q50">
         <v>2</v>
@@ -11078,7 +11105,7 @@
         <v>0.8</v>
       </c>
       <c r="AT52">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU52">
         <v>1.29</v>
@@ -11179,7 +11206,7 @@
         <v>120</v>
       </c>
       <c r="P53" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -11266,10 +11293,10 @@
         <v>3</v>
       </c>
       <c r="AS53">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT53">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU53">
         <v>1.63</v>
@@ -11648,7 +11675,7 @@
         <v>0.33</v>
       </c>
       <c r="AS55">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT55">
         <v>0.3</v>
@@ -11752,7 +11779,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -11839,7 +11866,7 @@
         <v>2</v>
       </c>
       <c r="AS56">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT56">
         <v>1.56</v>
@@ -12030,10 +12057,10 @@
         <v>1.5</v>
       </c>
       <c r="AS57">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT57">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU57">
         <v>1.4</v>
@@ -12134,7 +12161,7 @@
         <v>85</v>
       </c>
       <c r="P58" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12221,10 +12248,10 @@
         <v>1.5</v>
       </c>
       <c r="AS58">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT58">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU58">
         <v>1.46</v>
@@ -12415,7 +12442,7 @@
         <v>1.5</v>
       </c>
       <c r="AT59">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU59">
         <v>1.34</v>
@@ -12606,7 +12633,7 @@
         <v>0.9</v>
       </c>
       <c r="AT60">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU60">
         <v>1.57</v>
@@ -12794,7 +12821,7 @@
         <v>1.33</v>
       </c>
       <c r="AS61">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT61">
         <v>0.6</v>
@@ -12985,7 +13012,7 @@
         <v>1.33</v>
       </c>
       <c r="AS62">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT62">
         <v>1.4</v>
@@ -13089,7 +13116,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q63">
         <v>7</v>
@@ -13176,7 +13203,7 @@
         <v>1.33</v>
       </c>
       <c r="AS63">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT63">
         <v>1.1</v>
@@ -13280,7 +13307,7 @@
         <v>85</v>
       </c>
       <c r="P64" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q64">
         <v>1</v>
@@ -13370,7 +13397,7 @@
         <v>1.3</v>
       </c>
       <c r="AT64">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU64">
         <v>1.43</v>
@@ -13471,7 +13498,7 @@
         <v>128</v>
       </c>
       <c r="P65" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q65">
         <v>4</v>
@@ -13561,7 +13588,7 @@
         <v>1.6</v>
       </c>
       <c r="AT65">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU65">
         <v>1.4</v>
@@ -13752,7 +13779,7 @@
         <v>1.5</v>
       </c>
       <c r="AT66">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU66">
         <v>1.5</v>
@@ -13853,7 +13880,7 @@
         <v>130</v>
       </c>
       <c r="P67" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q67">
         <v>10</v>
@@ -14131,7 +14158,7 @@
         <v>1.33</v>
       </c>
       <c r="AS68">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT68">
         <v>1.5</v>
@@ -14322,7 +14349,7 @@
         <v>2</v>
       </c>
       <c r="AS69">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT69">
         <v>1.2</v>
@@ -14426,7 +14453,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14516,7 +14543,7 @@
         <v>2.6</v>
       </c>
       <c r="AT70">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU70">
         <v>1.36</v>
@@ -14617,7 +14644,7 @@
         <v>132</v>
       </c>
       <c r="P71" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14707,7 +14734,7 @@
         <v>0.8</v>
       </c>
       <c r="AT71">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU71">
         <v>1.24</v>
@@ -14895,7 +14922,7 @@
         <v>0.25</v>
       </c>
       <c r="AS72">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT72">
         <v>0.3</v>
@@ -15086,7 +15113,7 @@
         <v>1</v>
       </c>
       <c r="AS73">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT73">
         <v>0.6</v>
@@ -15190,7 +15217,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q74">
         <v>8</v>
@@ -15280,7 +15307,7 @@
         <v>1.5</v>
       </c>
       <c r="AT74">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU74">
         <v>1.48</v>
@@ -15471,7 +15498,7 @@
         <v>2.6</v>
       </c>
       <c r="AT75">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU75">
         <v>1.47</v>
@@ -15572,7 +15599,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15662,7 +15689,7 @@
         <v>0.9</v>
       </c>
       <c r="AT76">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU76">
         <v>1.59</v>
@@ -15850,7 +15877,7 @@
         <v>0.25</v>
       </c>
       <c r="AS77">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT77">
         <v>0.8</v>
@@ -16145,7 +16172,7 @@
         <v>138</v>
       </c>
       <c r="P79" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16232,10 +16259,10 @@
         <v>1</v>
       </c>
       <c r="AS79">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT79">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU79">
         <v>1.34</v>
@@ -16423,7 +16450,7 @@
         <v>2.33</v>
       </c>
       <c r="AS80">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT80">
         <v>1.56</v>
@@ -16614,7 +16641,7 @@
         <v>1.75</v>
       </c>
       <c r="AS81">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT81">
         <v>1.2</v>
@@ -16805,7 +16832,7 @@
         <v>1.75</v>
       </c>
       <c r="AS82">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT82">
         <v>1.1</v>
@@ -16909,7 +16936,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q83">
         <v>-1</v>
@@ -16999,7 +17026,7 @@
         <v>1.5</v>
       </c>
       <c r="AT83">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU83">
         <v>1.46</v>
@@ -17190,7 +17217,7 @@
         <v>1.3</v>
       </c>
       <c r="AT84">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU84">
         <v>1.52</v>
@@ -17381,7 +17408,7 @@
         <v>2</v>
       </c>
       <c r="AT85">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU85">
         <v>2.17</v>
@@ -17569,7 +17596,7 @@
         <v>0</v>
       </c>
       <c r="AS86">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT86">
         <v>0.3</v>
@@ -17673,7 +17700,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q87">
         <v>6</v>
@@ -17760,7 +17787,7 @@
         <v>1.25</v>
       </c>
       <c r="AS87">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT87">
         <v>1.5</v>
@@ -17954,7 +17981,7 @@
         <v>1.6</v>
       </c>
       <c r="AT88">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU88">
         <v>1.45</v>
@@ -18055,7 +18082,7 @@
         <v>91</v>
       </c>
       <c r="P89" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18142,7 +18169,7 @@
         <v>1.5</v>
       </c>
       <c r="AS89">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT89">
         <v>1.4</v>
@@ -18336,7 +18363,7 @@
         <v>2.1</v>
       </c>
       <c r="AT90">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU90">
         <v>1.78</v>
@@ -18819,7 +18846,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q93">
         <v>5</v>
@@ -18909,7 +18936,7 @@
         <v>1.5</v>
       </c>
       <c r="AT93">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU93">
         <v>1.46</v>
@@ -19288,7 +19315,7 @@
         <v>0.8</v>
       </c>
       <c r="AS95">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT95">
         <v>0.6</v>
@@ -19479,7 +19506,7 @@
         <v>0.2</v>
       </c>
       <c r="AS96">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT96">
         <v>0.8</v>
@@ -19583,7 +19610,7 @@
         <v>153</v>
       </c>
       <c r="P97" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q97">
         <v>8</v>
@@ -19670,7 +19697,7 @@
         <v>1.6</v>
       </c>
       <c r="AS97">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT97">
         <v>1.4</v>
@@ -19861,7 +19888,7 @@
         <v>0.2</v>
       </c>
       <c r="AS98">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT98">
         <v>0.3</v>
@@ -19965,7 +19992,7 @@
         <v>154</v>
       </c>
       <c r="P99" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -20055,7 +20082,7 @@
         <v>0.9</v>
       </c>
       <c r="AT99">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU99">
         <v>1.54</v>
@@ -20156,7 +20183,7 @@
         <v>85</v>
       </c>
       <c r="P100" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q100">
         <v>5</v>
@@ -20246,7 +20273,7 @@
         <v>0.8</v>
       </c>
       <c r="AT100">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU100">
         <v>1.46</v>
@@ -20437,7 +20464,7 @@
         <v>2.6</v>
       </c>
       <c r="AT101">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU101">
         <v>1.5</v>
@@ -20625,7 +20652,7 @@
         <v>1</v>
       </c>
       <c r="AS102">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT102">
         <v>1.5</v>
@@ -20729,7 +20756,7 @@
         <v>157</v>
       </c>
       <c r="P103" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -20819,7 +20846,7 @@
         <v>1.6</v>
       </c>
       <c r="AT103">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU103">
         <v>1.43</v>
@@ -21010,7 +21037,7 @@
         <v>1.3</v>
       </c>
       <c r="AT104">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU104">
         <v>1.4</v>
@@ -21198,7 +21225,7 @@
         <v>1.4</v>
       </c>
       <c r="AS105">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT105">
         <v>1.1</v>
@@ -21389,7 +21416,7 @@
         <v>0</v>
       </c>
       <c r="AS106">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT106">
         <v>0.3</v>
@@ -21493,7 +21520,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q107">
         <v>7</v>
@@ -21580,7 +21607,7 @@
         <v>1.4</v>
       </c>
       <c r="AS107">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT107">
         <v>1.4</v>
@@ -21771,10 +21798,10 @@
         <v>0.25</v>
       </c>
       <c r="AS108">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT108">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU108">
         <v>1.76</v>
@@ -21962,10 +21989,10 @@
         <v>1.5</v>
       </c>
       <c r="AS109">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT109">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU109">
         <v>1.87</v>
@@ -22156,7 +22183,7 @@
         <v>2.1</v>
       </c>
       <c r="AT110">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU110">
         <v>1.66</v>
@@ -22347,7 +22374,7 @@
         <v>2</v>
       </c>
       <c r="AT111">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU111">
         <v>2.25</v>
@@ -22535,7 +22562,7 @@
         <v>1.33</v>
       </c>
       <c r="AS112">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT112">
         <v>1.4</v>
@@ -22639,7 +22666,7 @@
         <v>164</v>
       </c>
       <c r="P113" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q113">
         <v>8</v>
@@ -22830,7 +22857,7 @@
         <v>165</v>
       </c>
       <c r="P114" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -23299,7 +23326,7 @@
         <v>1.33</v>
       </c>
       <c r="AS116">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT116">
         <v>1.2</v>
@@ -23403,7 +23430,7 @@
         <v>125</v>
       </c>
       <c r="P117" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q117">
         <v>2</v>
@@ -23490,7 +23517,7 @@
         <v>0.17</v>
       </c>
       <c r="AS117">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT117">
         <v>0.8</v>
@@ -23594,7 +23621,7 @@
         <v>166</v>
       </c>
       <c r="P118" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -23684,7 +23711,7 @@
         <v>1.5</v>
       </c>
       <c r="AT118">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU118">
         <v>1.41</v>
@@ -23785,7 +23812,7 @@
         <v>136</v>
       </c>
       <c r="P119" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q119">
         <v>2</v>
@@ -23875,7 +23902,7 @@
         <v>1.6</v>
       </c>
       <c r="AT119">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU119">
         <v>1.46</v>
@@ -24257,7 +24284,7 @@
         <v>2.6</v>
       </c>
       <c r="AT121">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU121">
         <v>1.47</v>
@@ -24445,7 +24472,7 @@
         <v>1.67</v>
       </c>
       <c r="AS122">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT122">
         <v>1.4</v>
@@ -24549,7 +24576,7 @@
         <v>85</v>
       </c>
       <c r="P123" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q123">
         <v>0</v>
@@ -24636,7 +24663,7 @@
         <v>0.83</v>
       </c>
       <c r="AS123">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT123">
         <v>1.5</v>
@@ -24740,7 +24767,7 @@
         <v>85</v>
       </c>
       <c r="P124" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q124">
         <v>5</v>
@@ -24830,7 +24857,7 @@
         <v>1.3</v>
       </c>
       <c r="AT124">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU124">
         <v>1.4</v>
@@ -24931,7 +24958,7 @@
         <v>169</v>
       </c>
       <c r="P125" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q125">
         <v>5</v>
@@ -25018,10 +25045,10 @@
         <v>1.4</v>
       </c>
       <c r="AS125">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT125">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU125">
         <v>1.84</v>
@@ -25209,10 +25236,10 @@
         <v>0.4</v>
       </c>
       <c r="AS126">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT126">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU126">
         <v>2.02</v>
@@ -25400,10 +25427,10 @@
         <v>1.2</v>
       </c>
       <c r="AS127">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT127">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU127">
         <v>1.47</v>
@@ -25504,7 +25531,7 @@
         <v>85</v>
       </c>
       <c r="P128" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q128">
         <v>7</v>
@@ -25591,7 +25618,7 @@
         <v>0</v>
       </c>
       <c r="AS128">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT128">
         <v>0.3</v>
@@ -25782,10 +25809,10 @@
         <v>1</v>
       </c>
       <c r="AS129">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT129">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU129">
         <v>1.73</v>
@@ -25886,7 +25913,7 @@
         <v>171</v>
       </c>
       <c r="P130" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q130">
         <v>1</v>
@@ -25976,7 +26003,7 @@
         <v>2.1</v>
       </c>
       <c r="AT130">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU130">
         <v>1.66</v>
@@ -26167,7 +26194,7 @@
         <v>2</v>
       </c>
       <c r="AT131">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU131">
         <v>2.09</v>
@@ -26268,7 +26295,7 @@
         <v>85</v>
       </c>
       <c r="P132" t="s">
-        <v>253</v>
+        <v>201</v>
       </c>
       <c r="Q132">
         <v>5</v>
@@ -26358,7 +26385,7 @@
         <v>1.3</v>
       </c>
       <c r="AT132">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU132">
         <v>1.44</v>
@@ -26459,7 +26486,7 @@
         <v>173</v>
       </c>
       <c r="P133" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q133">
         <v>5</v>
@@ -26546,7 +26573,7 @@
         <v>1.29</v>
       </c>
       <c r="AS133">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT133">
         <v>1.2</v>
@@ -26841,7 +26868,7 @@
         <v>125</v>
       </c>
       <c r="P135" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q135">
         <v>1</v>
@@ -27223,7 +27250,7 @@
         <v>85</v>
       </c>
       <c r="P137" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -27414,7 +27441,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q138">
         <v>8</v>
@@ -27504,7 +27531,7 @@
         <v>1.6</v>
       </c>
       <c r="AT138">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU138">
         <v>1.59</v>
@@ -27605,7 +27632,7 @@
         <v>175</v>
       </c>
       <c r="P139" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -27883,7 +27910,7 @@
         <v>1</v>
       </c>
       <c r="AS140">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT140">
         <v>1.1</v>
@@ -28178,7 +28205,7 @@
         <v>85</v>
       </c>
       <c r="P142" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q142">
         <v>9</v>
@@ -28268,7 +28295,7 @@
         <v>2.1</v>
       </c>
       <c r="AT142">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU142">
         <v>1.68</v>
@@ -28369,7 +28396,7 @@
         <v>178</v>
       </c>
       <c r="P143" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q143">
         <v>14</v>
@@ -28456,10 +28483,10 @@
         <v>0.5</v>
       </c>
       <c r="AS143">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT143">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU143">
         <v>1.81</v>
@@ -28647,10 +28674,10 @@
         <v>1.33</v>
       </c>
       <c r="AS144">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT144">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU144">
         <v>1.5</v>
@@ -28838,10 +28865,10 @@
         <v>0.33</v>
       </c>
       <c r="AS145">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT145">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU145">
         <v>1.83</v>
@@ -29029,7 +29056,7 @@
         <v>0.43</v>
       </c>
       <c r="AS146">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT146">
         <v>0.3</v>
@@ -29220,10 +29247,10 @@
         <v>1.83</v>
       </c>
       <c r="AS147">
+        <v>1.7</v>
+      </c>
+      <c r="AT147">
         <v>1.78</v>
-      </c>
-      <c r="AT147">
-        <v>1.88</v>
       </c>
       <c r="AU147">
         <v>1.71</v>
@@ -29411,7 +29438,7 @@
         <v>1.57</v>
       </c>
       <c r="AS148">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT148">
         <v>1.4</v>
@@ -29515,7 +29542,7 @@
         <v>85</v>
       </c>
       <c r="P149" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q149">
         <v>2</v>
@@ -29602,10 +29629,10 @@
         <v>0.83</v>
       </c>
       <c r="AS149">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT149">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU149">
         <v>1.93</v>
@@ -29796,7 +29823,7 @@
         <v>2</v>
       </c>
       <c r="AT150">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU150">
         <v>2.03</v>
@@ -29897,7 +29924,7 @@
         <v>181</v>
       </c>
       <c r="P151" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q151">
         <v>11</v>
@@ -29984,10 +30011,10 @@
         <v>1</v>
       </c>
       <c r="AS151">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT151">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU151">
         <v>1.78</v>
@@ -30178,7 +30205,7 @@
         <v>2</v>
       </c>
       <c r="AT152">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU152">
         <v>1.96</v>
@@ -30661,7 +30688,7 @@
         <v>183</v>
       </c>
       <c r="P155" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q155">
         <v>1</v>
@@ -31234,7 +31261,7 @@
         <v>85</v>
       </c>
       <c r="P158" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q158">
         <v>6</v>
@@ -31425,7 +31452,7 @@
         <v>96</v>
       </c>
       <c r="P159" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q159">
         <v>8</v>
@@ -31512,7 +31539,7 @@
         <v>1.13</v>
       </c>
       <c r="AS159">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT159">
         <v>1.5</v>
@@ -31807,7 +31834,7 @@
         <v>85</v>
       </c>
       <c r="P161" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q161">
         <v>6</v>
@@ -32088,7 +32115,7 @@
         <v>2.1</v>
       </c>
       <c r="AT162">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU162">
         <v>1.66</v>
@@ -32189,7 +32216,7 @@
         <v>188</v>
       </c>
       <c r="P163" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q163">
         <v>4</v>
@@ -32276,10 +32303,10 @@
         <v>2.29</v>
       </c>
       <c r="AS163">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT163">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AU163">
         <v>1.81</v>
@@ -32380,7 +32407,7 @@
         <v>189</v>
       </c>
       <c r="P164" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q164">
         <v>4</v>
@@ -32467,10 +32494,10 @@
         <v>1.14</v>
       </c>
       <c r="AS164">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT164">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU164">
         <v>1.81</v>
@@ -32571,7 +32598,7 @@
         <v>190</v>
       </c>
       <c r="P165" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q165">
         <v>2</v>
@@ -32658,10 +32685,10 @@
         <v>1.71</v>
       </c>
       <c r="AS165">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT165">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU165">
         <v>1.85</v>
@@ -32849,10 +32876,10 @@
         <v>0.86</v>
       </c>
       <c r="AS166">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT166">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AU166">
         <v>1.47</v>
@@ -32953,7 +32980,7 @@
         <v>191</v>
       </c>
       <c r="P167" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q167">
         <v>2</v>
@@ -33040,10 +33067,10 @@
         <v>1.29</v>
       </c>
       <c r="AS167">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT167">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AU167">
         <v>1.74</v>
@@ -33144,7 +33171,7 @@
         <v>192</v>
       </c>
       <c r="P168" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q168">
         <v>1</v>
@@ -33231,10 +33258,10 @@
         <v>0.43</v>
       </c>
       <c r="AS168">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT168">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU168">
         <v>1.9</v>
@@ -33422,10 +33449,10 @@
         <v>1.14</v>
       </c>
       <c r="AS169">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT169">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU169">
         <v>1.77</v>
@@ -33526,7 +33553,7 @@
         <v>85</v>
       </c>
       <c r="P170" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q170">
         <v>6</v>
@@ -33613,10 +33640,10 @@
         <v>1.86</v>
       </c>
       <c r="AS170">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT170">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AU170">
         <v>1.79</v>
@@ -33804,7 +33831,7 @@
         <v>0.38</v>
       </c>
       <c r="AS171">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT171">
         <v>0.3</v>
@@ -34099,7 +34126,7 @@
         <v>195</v>
       </c>
       <c r="P173" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q173">
         <v>-1</v>
@@ -34481,7 +34508,7 @@
         <v>85</v>
       </c>
       <c r="P175" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q175">
         <v>5</v>
@@ -34863,7 +34890,7 @@
         <v>197</v>
       </c>
       <c r="P177" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q177">
         <v>4</v>
@@ -35054,7 +35081,7 @@
         <v>198</v>
       </c>
       <c r="P178" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q178">
         <v>5</v>
@@ -35245,7 +35272,7 @@
         <v>152</v>
       </c>
       <c r="P179" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q179">
         <v>0</v>
@@ -35627,7 +35654,7 @@
         <v>200</v>
       </c>
       <c r="P181" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q181">
         <v>3</v>
@@ -35769,6 +35796,1916 @@
       </c>
       <c r="BK181">
         <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:63">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>3058410</v>
+      </c>
+      <c r="C182" t="s">
+        <v>63</v>
+      </c>
+      <c r="D182" t="s">
+        <v>64</v>
+      </c>
+      <c r="E182" s="2">
+        <v>44997.33333333334</v>
+      </c>
+      <c r="F182">
+        <v>19</v>
+      </c>
+      <c r="G182" t="s">
+        <v>78</v>
+      </c>
+      <c r="H182" t="s">
+        <v>72</v>
+      </c>
+      <c r="I182">
+        <v>1</v>
+      </c>
+      <c r="J182">
+        <v>1</v>
+      </c>
+      <c r="K182">
+        <v>2</v>
+      </c>
+      <c r="L182">
+        <v>1</v>
+      </c>
+      <c r="M182">
+        <v>1</v>
+      </c>
+      <c r="N182">
+        <v>2</v>
+      </c>
+      <c r="O182" t="s">
+        <v>99</v>
+      </c>
+      <c r="P182" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q182">
+        <v>1</v>
+      </c>
+      <c r="R182">
+        <v>3</v>
+      </c>
+      <c r="S182">
+        <v>4</v>
+      </c>
+      <c r="T182">
+        <v>6</v>
+      </c>
+      <c r="U182">
+        <v>1.95</v>
+      </c>
+      <c r="V182">
+        <v>2.38</v>
+      </c>
+      <c r="W182">
+        <v>1.42</v>
+      </c>
+      <c r="X182">
+        <v>2.7</v>
+      </c>
+      <c r="Y182">
+        <v>2.78</v>
+      </c>
+      <c r="Z182">
+        <v>1.35</v>
+      </c>
+      <c r="AA182">
+        <v>6.5</v>
+      </c>
+      <c r="AB182">
+        <v>1.08</v>
+      </c>
+      <c r="AC182">
+        <v>5</v>
+      </c>
+      <c r="AD182">
+        <v>3.2</v>
+      </c>
+      <c r="AE182">
+        <v>1.65</v>
+      </c>
+      <c r="AF182">
+        <v>1.05</v>
+      </c>
+      <c r="AG182">
+        <v>10.5</v>
+      </c>
+      <c r="AH182">
+        <v>1.29</v>
+      </c>
+      <c r="AI182">
+        <v>3.15</v>
+      </c>
+      <c r="AJ182">
+        <v>2.5</v>
+      </c>
+      <c r="AK182">
+        <v>1.5</v>
+      </c>
+      <c r="AL182">
+        <v>2.38</v>
+      </c>
+      <c r="AM182">
+        <v>1.53</v>
+      </c>
+      <c r="AN182">
+        <v>1.68</v>
+      </c>
+      <c r="AO182">
+        <v>1.28</v>
+      </c>
+      <c r="AP182">
+        <v>1.28</v>
+      </c>
+      <c r="AQ182">
+        <v>1.5</v>
+      </c>
+      <c r="AR182">
+        <v>1.13</v>
+      </c>
+      <c r="AS182">
+        <v>1.44</v>
+      </c>
+      <c r="AT182">
+        <v>1.11</v>
+      </c>
+      <c r="AU182">
+        <v>1.81</v>
+      </c>
+      <c r="AV182">
+        <v>1.51</v>
+      </c>
+      <c r="AW182">
+        <v>3.32</v>
+      </c>
+      <c r="AX182">
+        <v>0</v>
+      </c>
+      <c r="AY182">
+        <v>0</v>
+      </c>
+      <c r="AZ182">
+        <v>0</v>
+      </c>
+      <c r="BA182">
+        <v>0</v>
+      </c>
+      <c r="BB182">
+        <v>0</v>
+      </c>
+      <c r="BC182">
+        <v>0</v>
+      </c>
+      <c r="BD182">
+        <v>0</v>
+      </c>
+      <c r="BE182">
+        <v>0</v>
+      </c>
+      <c r="BF182">
+        <v>3</v>
+      </c>
+      <c r="BG182">
+        <v>4</v>
+      </c>
+      <c r="BH182">
+        <v>5</v>
+      </c>
+      <c r="BI182">
+        <v>5</v>
+      </c>
+      <c r="BJ182">
+        <v>8</v>
+      </c>
+      <c r="BK182">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:63">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>3058409</v>
+      </c>
+      <c r="C183" t="s">
+        <v>63</v>
+      </c>
+      <c r="D183" t="s">
+        <v>64</v>
+      </c>
+      <c r="E183" s="2">
+        <v>44997.33333333334</v>
+      </c>
+      <c r="F183">
+        <v>19</v>
+      </c>
+      <c r="G183" t="s">
+        <v>75</v>
+      </c>
+      <c r="H183" t="s">
+        <v>68</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>1</v>
+      </c>
+      <c r="M183">
+        <v>2</v>
+      </c>
+      <c r="N183">
+        <v>3</v>
+      </c>
+      <c r="O183" t="s">
+        <v>201</v>
+      </c>
+      <c r="P183" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q183">
+        <v>5</v>
+      </c>
+      <c r="R183">
+        <v>2</v>
+      </c>
+      <c r="S183">
+        <v>7</v>
+      </c>
+      <c r="T183">
+        <v>1.95</v>
+      </c>
+      <c r="U183">
+        <v>2.2</v>
+      </c>
+      <c r="V183">
+        <v>6.5</v>
+      </c>
+      <c r="W183">
+        <v>1.42</v>
+      </c>
+      <c r="X183">
+        <v>2.7</v>
+      </c>
+      <c r="Y183">
+        <v>2.85</v>
+      </c>
+      <c r="Z183">
+        <v>1.38</v>
+      </c>
+      <c r="AA183">
+        <v>6.75</v>
+      </c>
+      <c r="AB183">
+        <v>1.08</v>
+      </c>
+      <c r="AC183">
+        <v>1.44</v>
+      </c>
+      <c r="AD183">
+        <v>3.8</v>
+      </c>
+      <c r="AE183">
+        <v>7</v>
+      </c>
+      <c r="AF183">
+        <v>1.05</v>
+      </c>
+      <c r="AG183">
+        <v>10.75</v>
+      </c>
+      <c r="AH183">
+        <v>1.3</v>
+      </c>
+      <c r="AI183">
+        <v>3.2</v>
+      </c>
+      <c r="AJ183">
+        <v>1.95</v>
+      </c>
+      <c r="AK183">
+        <v>1.85</v>
+      </c>
+      <c r="AL183">
+        <v>2.2</v>
+      </c>
+      <c r="AM183">
+        <v>1.62</v>
+      </c>
+      <c r="AN183">
+        <v>1.23</v>
+      </c>
+      <c r="AO183">
+        <v>1.27</v>
+      </c>
+      <c r="AP183">
+        <v>1.85</v>
+      </c>
+      <c r="AQ183">
+        <v>1.75</v>
+      </c>
+      <c r="AR183">
+        <v>0.88</v>
+      </c>
+      <c r="AS183">
+        <v>1.56</v>
+      </c>
+      <c r="AT183">
+        <v>1.11</v>
+      </c>
+      <c r="AU183">
+        <v>1.75</v>
+      </c>
+      <c r="AV183">
+        <v>1.31</v>
+      </c>
+      <c r="AW183">
+        <v>3.06</v>
+      </c>
+      <c r="AX183">
+        <v>0</v>
+      </c>
+      <c r="AY183">
+        <v>0</v>
+      </c>
+      <c r="AZ183">
+        <v>0</v>
+      </c>
+      <c r="BA183">
+        <v>0</v>
+      </c>
+      <c r="BB183">
+        <v>0</v>
+      </c>
+      <c r="BC183">
+        <v>0</v>
+      </c>
+      <c r="BD183">
+        <v>0</v>
+      </c>
+      <c r="BE183">
+        <v>0</v>
+      </c>
+      <c r="BF183">
+        <v>5</v>
+      </c>
+      <c r="BG183">
+        <v>5</v>
+      </c>
+      <c r="BH183">
+        <v>11</v>
+      </c>
+      <c r="BI183">
+        <v>7</v>
+      </c>
+      <c r="BJ183">
+        <v>16</v>
+      </c>
+      <c r="BK183">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" spans="1:63">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>3058411</v>
+      </c>
+      <c r="C184" t="s">
+        <v>63</v>
+      </c>
+      <c r="D184" t="s">
+        <v>64</v>
+      </c>
+      <c r="E184" s="2">
+        <v>44997.33333333334</v>
+      </c>
+      <c r="F184">
+        <v>19</v>
+      </c>
+      <c r="G184" t="s">
+        <v>77</v>
+      </c>
+      <c r="H184" t="s">
+        <v>65</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
+      <c r="L184">
+        <v>3</v>
+      </c>
+      <c r="M184">
+        <v>1</v>
+      </c>
+      <c r="N184">
+        <v>4</v>
+      </c>
+      <c r="O184" t="s">
+        <v>202</v>
+      </c>
+      <c r="P184" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q184">
+        <v>10</v>
+      </c>
+      <c r="R184">
+        <v>0</v>
+      </c>
+      <c r="S184">
+        <v>10</v>
+      </c>
+      <c r="T184">
+        <v>1.83</v>
+      </c>
+      <c r="U184">
+        <v>2.38</v>
+      </c>
+      <c r="V184">
+        <v>7</v>
+      </c>
+      <c r="W184">
+        <v>1.35</v>
+      </c>
+      <c r="X184">
+        <v>2.95</v>
+      </c>
+      <c r="Y184">
+        <v>2.6</v>
+      </c>
+      <c r="Z184">
+        <v>1.45</v>
+      </c>
+      <c r="AA184">
+        <v>6</v>
+      </c>
+      <c r="AB184">
+        <v>1.1</v>
+      </c>
+      <c r="AC184">
+        <v>1.36</v>
+      </c>
+      <c r="AD184">
+        <v>4.2</v>
+      </c>
+      <c r="AE184">
+        <v>7.5</v>
+      </c>
+      <c r="AF184">
+        <v>1.03</v>
+      </c>
+      <c r="AG184">
+        <v>13.75</v>
+      </c>
+      <c r="AH184">
+        <v>1.24</v>
+      </c>
+      <c r="AI184">
+        <v>3.63</v>
+      </c>
+      <c r="AJ184">
+        <v>1.75</v>
+      </c>
+      <c r="AK184">
+        <v>2.05</v>
+      </c>
+      <c r="AL184">
+        <v>2.1</v>
+      </c>
+      <c r="AM184">
+        <v>1.67</v>
+      </c>
+      <c r="AN184">
+        <v>1.06</v>
+      </c>
+      <c r="AO184">
+        <v>1.13</v>
+      </c>
+      <c r="AP184">
+        <v>3.6</v>
+      </c>
+      <c r="AQ184">
+        <v>2.75</v>
+      </c>
+      <c r="AR184">
+        <v>1.13</v>
+      </c>
+      <c r="AS184">
+        <v>2.78</v>
+      </c>
+      <c r="AT184">
+        <v>1</v>
+      </c>
+      <c r="AU184">
+        <v>1.75</v>
+      </c>
+      <c r="AV184">
+        <v>1.21</v>
+      </c>
+      <c r="AW184">
+        <v>2.96</v>
+      </c>
+      <c r="AX184">
+        <v>0</v>
+      </c>
+      <c r="AY184">
+        <v>0</v>
+      </c>
+      <c r="AZ184">
+        <v>0</v>
+      </c>
+      <c r="BA184">
+        <v>0</v>
+      </c>
+      <c r="BB184">
+        <v>0</v>
+      </c>
+      <c r="BC184">
+        <v>0</v>
+      </c>
+      <c r="BD184">
+        <v>0</v>
+      </c>
+      <c r="BE184">
+        <v>0</v>
+      </c>
+      <c r="BF184">
+        <v>12</v>
+      </c>
+      <c r="BG184">
+        <v>3</v>
+      </c>
+      <c r="BH184">
+        <v>9</v>
+      </c>
+      <c r="BI184">
+        <v>2</v>
+      </c>
+      <c r="BJ184">
+        <v>21</v>
+      </c>
+      <c r="BK184">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:63">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>3058408</v>
+      </c>
+      <c r="C185" t="s">
+        <v>63</v>
+      </c>
+      <c r="D185" t="s">
+        <v>64</v>
+      </c>
+      <c r="E185" s="2">
+        <v>44997.33333333334</v>
+      </c>
+      <c r="F185">
+        <v>19</v>
+      </c>
+      <c r="G185" t="s">
+        <v>82</v>
+      </c>
+      <c r="H185" t="s">
+        <v>69</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>1</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="L185">
+        <v>1</v>
+      </c>
+      <c r="M185">
+        <v>1</v>
+      </c>
+      <c r="N185">
+        <v>2</v>
+      </c>
+      <c r="O185" t="s">
+        <v>185</v>
+      </c>
+      <c r="P185" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q185">
+        <v>4</v>
+      </c>
+      <c r="R185">
+        <v>2</v>
+      </c>
+      <c r="S185">
+        <v>6</v>
+      </c>
+      <c r="T185">
+        <v>3.2</v>
+      </c>
+      <c r="U185">
+        <v>1.83</v>
+      </c>
+      <c r="V185">
+        <v>4</v>
+      </c>
+      <c r="W185">
+        <v>1.5</v>
+      </c>
+      <c r="X185">
+        <v>2.45</v>
+      </c>
+      <c r="Y185">
+        <v>3.2</v>
+      </c>
+      <c r="Z185">
+        <v>1.3</v>
+      </c>
+      <c r="AA185">
+        <v>7.5</v>
+      </c>
+      <c r="AB185">
+        <v>1.06</v>
+      </c>
+      <c r="AC185">
+        <v>2.38</v>
+      </c>
+      <c r="AD185">
+        <v>2.63</v>
+      </c>
+      <c r="AE185">
+        <v>3.25</v>
+      </c>
+      <c r="AF185">
+        <v>1.07</v>
+      </c>
+      <c r="AG185">
+        <v>8.9</v>
+      </c>
+      <c r="AH185">
+        <v>1.38</v>
+      </c>
+      <c r="AI185">
+        <v>2.8</v>
+      </c>
+      <c r="AJ185">
+        <v>2.88</v>
+      </c>
+      <c r="AK185">
+        <v>1.4</v>
+      </c>
+      <c r="AL185">
+        <v>2.25</v>
+      </c>
+      <c r="AM185">
+        <v>1.57</v>
+      </c>
+      <c r="AN185">
+        <v>1.3</v>
+      </c>
+      <c r="AO185">
+        <v>1.3</v>
+      </c>
+      <c r="AP185">
+        <v>1.62</v>
+      </c>
+      <c r="AQ185">
+        <v>1.5</v>
+      </c>
+      <c r="AR185">
+        <v>1.88</v>
+      </c>
+      <c r="AS185">
+        <v>1.44</v>
+      </c>
+      <c r="AT185">
+        <v>1.78</v>
+      </c>
+      <c r="AU185">
+        <v>1.71</v>
+      </c>
+      <c r="AV185">
+        <v>1.39</v>
+      </c>
+      <c r="AW185">
+        <v>3.1</v>
+      </c>
+      <c r="AX185">
+        <v>0</v>
+      </c>
+      <c r="AY185">
+        <v>0</v>
+      </c>
+      <c r="AZ185">
+        <v>0</v>
+      </c>
+      <c r="BA185">
+        <v>0</v>
+      </c>
+      <c r="BB185">
+        <v>0</v>
+      </c>
+      <c r="BC185">
+        <v>0</v>
+      </c>
+      <c r="BD185">
+        <v>0</v>
+      </c>
+      <c r="BE185">
+        <v>0</v>
+      </c>
+      <c r="BF185">
+        <v>2</v>
+      </c>
+      <c r="BG185">
+        <v>2</v>
+      </c>
+      <c r="BH185">
+        <v>3</v>
+      </c>
+      <c r="BI185">
+        <v>5</v>
+      </c>
+      <c r="BJ185">
+        <v>5</v>
+      </c>
+      <c r="BK185">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:63">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>3058412</v>
+      </c>
+      <c r="C186" t="s">
+        <v>63</v>
+      </c>
+      <c r="D186" t="s">
+        <v>64</v>
+      </c>
+      <c r="E186" s="2">
+        <v>44997.33333333334</v>
+      </c>
+      <c r="F186">
+        <v>19</v>
+      </c>
+      <c r="G186" t="s">
+        <v>83</v>
+      </c>
+      <c r="H186" t="s">
+        <v>73</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="L186">
+        <v>1</v>
+      </c>
+      <c r="M186">
+        <v>1</v>
+      </c>
+      <c r="N186">
+        <v>2</v>
+      </c>
+      <c r="O186" t="s">
+        <v>203</v>
+      </c>
+      <c r="P186" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q186">
+        <v>5</v>
+      </c>
+      <c r="R186">
+        <v>5</v>
+      </c>
+      <c r="S186">
+        <v>10</v>
+      </c>
+      <c r="T186">
+        <v>1.8</v>
+      </c>
+      <c r="U186">
+        <v>2.4</v>
+      </c>
+      <c r="V186">
+        <v>7</v>
+      </c>
+      <c r="W186">
+        <v>1.35</v>
+      </c>
+      <c r="X186">
+        <v>2.95</v>
+      </c>
+      <c r="Y186">
+        <v>2.6</v>
+      </c>
+      <c r="Z186">
+        <v>1.45</v>
+      </c>
+      <c r="AA186">
+        <v>6</v>
+      </c>
+      <c r="AB186">
+        <v>1.1</v>
+      </c>
+      <c r="AC186">
+        <v>1.33</v>
+      </c>
+      <c r="AD186">
+        <v>4.5</v>
+      </c>
+      <c r="AE186">
+        <v>8</v>
+      </c>
+      <c r="AF186">
+        <v>1.03</v>
+      </c>
+      <c r="AG186">
+        <v>14</v>
+      </c>
+      <c r="AH186">
+        <v>1.24</v>
+      </c>
+      <c r="AI186">
+        <v>3.62</v>
+      </c>
+      <c r="AJ186">
+        <v>1.73</v>
+      </c>
+      <c r="AK186">
+        <v>2.08</v>
+      </c>
+      <c r="AL186">
+        <v>2.1</v>
+      </c>
+      <c r="AM186">
+        <v>1.67</v>
+      </c>
+      <c r="AN186">
+        <v>1.09</v>
+      </c>
+      <c r="AO186">
+        <v>1.15</v>
+      </c>
+      <c r="AP186">
+        <v>2.9</v>
+      </c>
+      <c r="AQ186">
+        <v>1.63</v>
+      </c>
+      <c r="AR186">
+        <v>0.38</v>
+      </c>
+      <c r="AS186">
+        <v>1.56</v>
+      </c>
+      <c r="AT186">
+        <v>0.44</v>
+      </c>
+      <c r="AU186">
+        <v>1.53</v>
+      </c>
+      <c r="AV186">
+        <v>1.07</v>
+      </c>
+      <c r="AW186">
+        <v>2.6</v>
+      </c>
+      <c r="AX186">
+        <v>0</v>
+      </c>
+      <c r="AY186">
+        <v>0</v>
+      </c>
+      <c r="AZ186">
+        <v>0</v>
+      </c>
+      <c r="BA186">
+        <v>0</v>
+      </c>
+      <c r="BB186">
+        <v>0</v>
+      </c>
+      <c r="BC186">
+        <v>0</v>
+      </c>
+      <c r="BD186">
+        <v>0</v>
+      </c>
+      <c r="BE186">
+        <v>0</v>
+      </c>
+      <c r="BF186">
+        <v>4</v>
+      </c>
+      <c r="BG186">
+        <v>6</v>
+      </c>
+      <c r="BH186">
+        <v>8</v>
+      </c>
+      <c r="BI186">
+        <v>7</v>
+      </c>
+      <c r="BJ186">
+        <v>12</v>
+      </c>
+      <c r="BK186">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="1:63">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>3058406</v>
+      </c>
+      <c r="C187" t="s">
+        <v>63</v>
+      </c>
+      <c r="D187" t="s">
+        <v>64</v>
+      </c>
+      <c r="E187" s="2">
+        <v>44997.33333333334</v>
+      </c>
+      <c r="F187">
+        <v>19</v>
+      </c>
+      <c r="G187" t="s">
+        <v>79</v>
+      </c>
+      <c r="H187" t="s">
+        <v>74</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+      <c r="M187">
+        <v>2</v>
+      </c>
+      <c r="N187">
+        <v>2</v>
+      </c>
+      <c r="O187" t="s">
+        <v>85</v>
+      </c>
+      <c r="P187" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q187">
+        <v>5</v>
+      </c>
+      <c r="R187">
+        <v>5</v>
+      </c>
+      <c r="S187">
+        <v>10</v>
+      </c>
+      <c r="T187">
+        <v>6</v>
+      </c>
+      <c r="U187">
+        <v>2.2</v>
+      </c>
+      <c r="V187">
+        <v>2.1</v>
+      </c>
+      <c r="W187">
+        <v>1.41</v>
+      </c>
+      <c r="X187">
+        <v>2.7</v>
+      </c>
+      <c r="Y187">
+        <v>2.66</v>
+      </c>
+      <c r="Z187">
+        <v>1.44</v>
+      </c>
+      <c r="AA187">
+        <v>6.15</v>
+      </c>
+      <c r="AB187">
+        <v>1.09</v>
+      </c>
+      <c r="AC187">
+        <v>5.5</v>
+      </c>
+      <c r="AD187">
+        <v>4</v>
+      </c>
+      <c r="AE187">
+        <v>1.5</v>
+      </c>
+      <c r="AF187">
+        <v>1.05</v>
+      </c>
+      <c r="AG187">
+        <v>11</v>
+      </c>
+      <c r="AH187">
+        <v>1.25</v>
+      </c>
+      <c r="AI187">
+        <v>3.54</v>
+      </c>
+      <c r="AJ187">
+        <v>1.95</v>
+      </c>
+      <c r="AK187">
+        <v>1.85</v>
+      </c>
+      <c r="AL187">
+        <v>2.1</v>
+      </c>
+      <c r="AM187">
+        <v>1.67</v>
+      </c>
+      <c r="AN187">
+        <v>2.15</v>
+      </c>
+      <c r="AO187">
+        <v>1.2</v>
+      </c>
+      <c r="AP187">
+        <v>1.1</v>
+      </c>
+      <c r="AQ187">
+        <v>1.63</v>
+      </c>
+      <c r="AR187">
+        <v>2.13</v>
+      </c>
+      <c r="AS187">
+        <v>1.44</v>
+      </c>
+      <c r="AT187">
+        <v>2.22</v>
+      </c>
+      <c r="AU187">
+        <v>1.76</v>
+      </c>
+      <c r="AV187">
+        <v>1.51</v>
+      </c>
+      <c r="AW187">
+        <v>3.27</v>
+      </c>
+      <c r="AX187">
+        <v>0</v>
+      </c>
+      <c r="AY187">
+        <v>0</v>
+      </c>
+      <c r="AZ187">
+        <v>0</v>
+      </c>
+      <c r="BA187">
+        <v>0</v>
+      </c>
+      <c r="BB187">
+        <v>0</v>
+      </c>
+      <c r="BC187">
+        <v>0</v>
+      </c>
+      <c r="BD187">
+        <v>0</v>
+      </c>
+      <c r="BE187">
+        <v>0</v>
+      </c>
+      <c r="BF187">
+        <v>4</v>
+      </c>
+      <c r="BG187">
+        <v>7</v>
+      </c>
+      <c r="BH187">
+        <v>12</v>
+      </c>
+      <c r="BI187">
+        <v>12</v>
+      </c>
+      <c r="BJ187">
+        <v>16</v>
+      </c>
+      <c r="BK187">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="188" spans="1:63">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>3058405</v>
+      </c>
+      <c r="C188" t="s">
+        <v>63</v>
+      </c>
+      <c r="D188" t="s">
+        <v>64</v>
+      </c>
+      <c r="E188" s="2">
+        <v>44997.33333333334</v>
+      </c>
+      <c r="F188">
+        <v>19</v>
+      </c>
+      <c r="G188" t="s">
+        <v>84</v>
+      </c>
+      <c r="H188" t="s">
+        <v>71</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>1</v>
+      </c>
+      <c r="L188">
+        <v>1</v>
+      </c>
+      <c r="M188">
+        <v>1</v>
+      </c>
+      <c r="N188">
+        <v>2</v>
+      </c>
+      <c r="O188" t="s">
+        <v>204</v>
+      </c>
+      <c r="P188" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q188">
+        <v>3</v>
+      </c>
+      <c r="R188">
+        <v>4</v>
+      </c>
+      <c r="S188">
+        <v>7</v>
+      </c>
+      <c r="T188">
+        <v>5</v>
+      </c>
+      <c r="U188">
+        <v>2.1</v>
+      </c>
+      <c r="V188">
+        <v>2.25</v>
+      </c>
+      <c r="W188">
+        <v>1.42</v>
+      </c>
+      <c r="X188">
+        <v>2.65</v>
+      </c>
+      <c r="Y188">
+        <v>2.85</v>
+      </c>
+      <c r="Z188">
+        <v>1.38</v>
+      </c>
+      <c r="AA188">
+        <v>6.5</v>
+      </c>
+      <c r="AB188">
+        <v>1.08</v>
+      </c>
+      <c r="AC188">
+        <v>4.33</v>
+      </c>
+      <c r="AD188">
+        <v>3.6</v>
+      </c>
+      <c r="AE188">
+        <v>1.65</v>
+      </c>
+      <c r="AF188">
+        <v>1.05</v>
+      </c>
+      <c r="AG188">
+        <v>10.5</v>
+      </c>
+      <c r="AH188">
+        <v>1.3</v>
+      </c>
+      <c r="AI188">
+        <v>3.22</v>
+      </c>
+      <c r="AJ188">
+        <v>2.08</v>
+      </c>
+      <c r="AK188">
+        <v>1.73</v>
+      </c>
+      <c r="AL188">
+        <v>2.1</v>
+      </c>
+      <c r="AM188">
+        <v>1.67</v>
+      </c>
+      <c r="AN188">
+        <v>1.62</v>
+      </c>
+      <c r="AO188">
+        <v>1.28</v>
+      </c>
+      <c r="AP188">
+        <v>1.32</v>
+      </c>
+      <c r="AQ188">
+        <v>1.13</v>
+      </c>
+      <c r="AR188">
+        <v>1.13</v>
+      </c>
+      <c r="AS188">
+        <v>1.11</v>
+      </c>
+      <c r="AT188">
+        <v>1.11</v>
+      </c>
+      <c r="AU188">
+        <v>1.71</v>
+      </c>
+      <c r="AV188">
+        <v>1.72</v>
+      </c>
+      <c r="AW188">
+        <v>3.43</v>
+      </c>
+      <c r="AX188">
+        <v>0</v>
+      </c>
+      <c r="AY188">
+        <v>0</v>
+      </c>
+      <c r="AZ188">
+        <v>0</v>
+      </c>
+      <c r="BA188">
+        <v>0</v>
+      </c>
+      <c r="BB188">
+        <v>0</v>
+      </c>
+      <c r="BC188">
+        <v>0</v>
+      </c>
+      <c r="BD188">
+        <v>0</v>
+      </c>
+      <c r="BE188">
+        <v>0</v>
+      </c>
+      <c r="BF188">
+        <v>8</v>
+      </c>
+      <c r="BG188">
+        <v>9</v>
+      </c>
+      <c r="BH188">
+        <v>3</v>
+      </c>
+      <c r="BI188">
+        <v>6</v>
+      </c>
+      <c r="BJ188">
+        <v>11</v>
+      </c>
+      <c r="BK188">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="189" spans="1:63">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>3058404</v>
+      </c>
+      <c r="C189" t="s">
+        <v>63</v>
+      </c>
+      <c r="D189" t="s">
+        <v>64</v>
+      </c>
+      <c r="E189" s="2">
+        <v>44997.33333333334</v>
+      </c>
+      <c r="F189">
+        <v>19</v>
+      </c>
+      <c r="G189" t="s">
+        <v>66</v>
+      </c>
+      <c r="H189" t="s">
+        <v>81</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189">
+        <v>1</v>
+      </c>
+      <c r="K189">
+        <v>2</v>
+      </c>
+      <c r="L189">
+        <v>2</v>
+      </c>
+      <c r="M189">
+        <v>2</v>
+      </c>
+      <c r="N189">
+        <v>4</v>
+      </c>
+      <c r="O189" t="s">
+        <v>205</v>
+      </c>
+      <c r="P189" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q189">
+        <v>7</v>
+      </c>
+      <c r="R189">
+        <v>1</v>
+      </c>
+      <c r="S189">
+        <v>8</v>
+      </c>
+      <c r="T189">
+        <v>2.75</v>
+      </c>
+      <c r="U189">
+        <v>2</v>
+      </c>
+      <c r="V189">
+        <v>4</v>
+      </c>
+      <c r="W189">
+        <v>1.42</v>
+      </c>
+      <c r="X189">
+        <v>2.63</v>
+      </c>
+      <c r="Y189">
+        <v>3.35</v>
+      </c>
+      <c r="Z189">
+        <v>1.28</v>
+      </c>
+      <c r="AA189">
+        <v>7.4</v>
+      </c>
+      <c r="AB189">
+        <v>1.06</v>
+      </c>
+      <c r="AC189">
+        <v>2.05</v>
+      </c>
+      <c r="AD189">
+        <v>3</v>
+      </c>
+      <c r="AE189">
+        <v>3.4</v>
+      </c>
+      <c r="AF189">
+        <v>1.07</v>
+      </c>
+      <c r="AG189">
+        <v>8.5</v>
+      </c>
+      <c r="AH189">
+        <v>1.38</v>
+      </c>
+      <c r="AI189">
+        <v>2.9</v>
+      </c>
+      <c r="AJ189">
+        <v>2.3</v>
+      </c>
+      <c r="AK189">
+        <v>1.6</v>
+      </c>
+      <c r="AL189">
+        <v>2</v>
+      </c>
+      <c r="AM189">
+        <v>1.73</v>
+      </c>
+      <c r="AN189">
+        <v>1.23</v>
+      </c>
+      <c r="AO189">
+        <v>1.29</v>
+      </c>
+      <c r="AP189">
+        <v>1.79</v>
+      </c>
+      <c r="AQ189">
+        <v>1.78</v>
+      </c>
+      <c r="AR189">
+        <v>1.22</v>
+      </c>
+      <c r="AS189">
+        <v>1.7</v>
+      </c>
+      <c r="AT189">
+        <v>1.2</v>
+      </c>
+      <c r="AU189">
+        <v>1.77</v>
+      </c>
+      <c r="AV189">
+        <v>1.49</v>
+      </c>
+      <c r="AW189">
+        <v>3.26</v>
+      </c>
+      <c r="AX189">
+        <v>0</v>
+      </c>
+      <c r="AY189">
+        <v>0</v>
+      </c>
+      <c r="AZ189">
+        <v>0</v>
+      </c>
+      <c r="BA189">
+        <v>0</v>
+      </c>
+      <c r="BB189">
+        <v>0</v>
+      </c>
+      <c r="BC189">
+        <v>0</v>
+      </c>
+      <c r="BD189">
+        <v>0</v>
+      </c>
+      <c r="BE189">
+        <v>0</v>
+      </c>
+      <c r="BF189">
+        <v>5</v>
+      </c>
+      <c r="BG189">
+        <v>4</v>
+      </c>
+      <c r="BH189">
+        <v>2</v>
+      </c>
+      <c r="BI189">
+        <v>8</v>
+      </c>
+      <c r="BJ189">
+        <v>7</v>
+      </c>
+      <c r="BK189">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="1:63">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>3058407</v>
+      </c>
+      <c r="C190" t="s">
+        <v>63</v>
+      </c>
+      <c r="D190" t="s">
+        <v>64</v>
+      </c>
+      <c r="E190" s="2">
+        <v>44997.33333333334</v>
+      </c>
+      <c r="F190">
+        <v>19</v>
+      </c>
+      <c r="G190" t="s">
+        <v>80</v>
+      </c>
+      <c r="H190" t="s">
+        <v>70</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>1</v>
+      </c>
+      <c r="L190">
+        <v>2</v>
+      </c>
+      <c r="M190">
+        <v>1</v>
+      </c>
+      <c r="N190">
+        <v>3</v>
+      </c>
+      <c r="O190" t="s">
+        <v>206</v>
+      </c>
+      <c r="P190" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q190">
+        <v>2</v>
+      </c>
+      <c r="R190">
+        <v>3</v>
+      </c>
+      <c r="S190">
+        <v>5</v>
+      </c>
+      <c r="T190">
+        <v>5.5</v>
+      </c>
+      <c r="U190">
+        <v>2</v>
+      </c>
+      <c r="V190">
+        <v>2.38</v>
+      </c>
+      <c r="W190">
+        <v>1.45</v>
+      </c>
+      <c r="X190">
+        <v>2.55</v>
+      </c>
+      <c r="Y190">
+        <v>3.05</v>
+      </c>
+      <c r="Z190">
+        <v>1.32</v>
+      </c>
+      <c r="AA190">
+        <v>7</v>
+      </c>
+      <c r="AB190">
+        <v>1.06</v>
+      </c>
+      <c r="AC190">
+        <v>3.8</v>
+      </c>
+      <c r="AD190">
+        <v>3.5</v>
+      </c>
+      <c r="AE190">
+        <v>1.75</v>
+      </c>
+      <c r="AF190">
+        <v>1.06</v>
+      </c>
+      <c r="AG190">
+        <v>9.4</v>
+      </c>
+      <c r="AH190">
+        <v>1.5</v>
+      </c>
+      <c r="AI190">
+        <v>2.4</v>
+      </c>
+      <c r="AJ190">
+        <v>2.35</v>
+      </c>
+      <c r="AK190">
+        <v>1.57</v>
+      </c>
+      <c r="AL190">
+        <v>2.2</v>
+      </c>
+      <c r="AM190">
+        <v>1.62</v>
+      </c>
+      <c r="AN190">
+        <v>2.05</v>
+      </c>
+      <c r="AO190">
+        <v>1.28</v>
+      </c>
+      <c r="AP190">
+        <v>1.16</v>
+      </c>
+      <c r="AQ190">
+        <v>1.25</v>
+      </c>
+      <c r="AR190">
+        <v>2</v>
+      </c>
+      <c r="AS190">
+        <v>1.44</v>
+      </c>
+      <c r="AT190">
+        <v>1.78</v>
+      </c>
+      <c r="AU190">
+        <v>1.63</v>
+      </c>
+      <c r="AV190">
+        <v>1.35</v>
+      </c>
+      <c r="AW190">
+        <v>2.98</v>
+      </c>
+      <c r="AX190">
+        <v>0</v>
+      </c>
+      <c r="AY190">
+        <v>0</v>
+      </c>
+      <c r="AZ190">
+        <v>0</v>
+      </c>
+      <c r="BA190">
+        <v>0</v>
+      </c>
+      <c r="BB190">
+        <v>0</v>
+      </c>
+      <c r="BC190">
+        <v>0</v>
+      </c>
+      <c r="BD190">
+        <v>0</v>
+      </c>
+      <c r="BE190">
+        <v>0</v>
+      </c>
+      <c r="BF190">
+        <v>5</v>
+      </c>
+      <c r="BG190">
+        <v>5</v>
+      </c>
+      <c r="BH190">
+        <v>11</v>
+      </c>
+      <c r="BI190">
+        <v>4</v>
+      </c>
+      <c r="BJ190">
+        <v>16</v>
+      </c>
+      <c r="BK190">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:63">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>3058413</v>
+      </c>
+      <c r="C191" t="s">
+        <v>63</v>
+      </c>
+      <c r="D191" t="s">
+        <v>64</v>
+      </c>
+      <c r="E191" s="2">
+        <v>44997.33333333334</v>
+      </c>
+      <c r="F191">
+        <v>19</v>
+      </c>
+      <c r="G191" t="s">
+        <v>76</v>
+      </c>
+      <c r="H191" t="s">
+        <v>67</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>1</v>
+      </c>
+      <c r="K191">
+        <v>1</v>
+      </c>
+      <c r="L191">
+        <v>0</v>
+      </c>
+      <c r="M191">
+        <v>3</v>
+      </c>
+      <c r="N191">
+        <v>3</v>
+      </c>
+      <c r="O191" t="s">
+        <v>85</v>
+      </c>
+      <c r="P191" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q191">
+        <v>1</v>
+      </c>
+      <c r="R191">
+        <v>4</v>
+      </c>
+      <c r="S191">
+        <v>5</v>
+      </c>
+      <c r="T191">
+        <v>10.5</v>
+      </c>
+      <c r="U191">
+        <v>3.54</v>
+      </c>
+      <c r="V191">
+        <v>1.41</v>
+      </c>
+      <c r="W191">
+        <v>1.36</v>
+      </c>
+      <c r="X191">
+        <v>3</v>
+      </c>
+      <c r="Y191">
+        <v>1.7</v>
+      </c>
+      <c r="Z191">
+        <v>2.13</v>
+      </c>
+      <c r="AA191">
+        <v>3.2</v>
+      </c>
+      <c r="AB191">
+        <v>1.3</v>
+      </c>
+      <c r="AC191">
+        <v>15</v>
+      </c>
+      <c r="AD191">
+        <v>8</v>
+      </c>
+      <c r="AE191">
+        <v>1.06</v>
+      </c>
+      <c r="AF191">
+        <v>1.03</v>
+      </c>
+      <c r="AG191">
+        <v>10</v>
+      </c>
+      <c r="AH191">
+        <v>1.05</v>
+      </c>
+      <c r="AI191">
+        <v>7.9</v>
+      </c>
+      <c r="AJ191">
+        <v>1.96</v>
+      </c>
+      <c r="AK191">
+        <v>1.79</v>
+      </c>
+      <c r="AL191">
+        <v>2.1</v>
+      </c>
+      <c r="AM191">
+        <v>1.65</v>
+      </c>
+      <c r="AN191">
+        <v>6.75</v>
+      </c>
+      <c r="AO191">
+        <v>1.06</v>
+      </c>
+      <c r="AP191">
+        <v>1.01</v>
+      </c>
+      <c r="AQ191">
+        <v>1.13</v>
+      </c>
+      <c r="AR191">
+        <v>1.13</v>
+      </c>
+      <c r="AS191">
+        <v>1</v>
+      </c>
+      <c r="AT191">
+        <v>1.33</v>
+      </c>
+      <c r="AU191">
+        <v>1.21</v>
+      </c>
+      <c r="AV191">
+        <v>1.42</v>
+      </c>
+      <c r="AW191">
+        <v>2.63</v>
+      </c>
+      <c r="AX191">
+        <v>0</v>
+      </c>
+      <c r="AY191">
+        <v>0</v>
+      </c>
+      <c r="AZ191">
+        <v>0</v>
+      </c>
+      <c r="BA191">
+        <v>0</v>
+      </c>
+      <c r="BB191">
+        <v>0</v>
+      </c>
+      <c r="BC191">
+        <v>0</v>
+      </c>
+      <c r="BD191">
+        <v>0</v>
+      </c>
+      <c r="BE191">
+        <v>0</v>
+      </c>
+      <c r="BF191">
+        <v>-1</v>
+      </c>
+      <c r="BG191">
+        <v>-1</v>
+      </c>
+      <c r="BH191">
+        <v>-1</v>
+      </c>
+      <c r="BI191">
+        <v>-1</v>
+      </c>
+      <c r="BJ191">
+        <v>-1</v>
+      </c>
+      <c r="BK191">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga II_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga II_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK192"/>
+  <dimension ref="A1:BK198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT3" t="n">
         <v>0.6</v>
@@ -1512,7 +1512,7 @@
         <v>1.5</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.3</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.5</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU13" t="n">
         <v>1.12</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -3745,7 +3745,7 @@
         <v>2.78</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT17" t="n">
         <v>1.56</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT19" t="n">
         <v>0.6</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT22" t="n">
         <v>0.3</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT24" t="n">
         <v>0.8</v>
@@ -5775,7 +5775,7 @@
         <v>1.3</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU26" t="n">
         <v>1.68</v>
@@ -5978,7 +5978,7 @@
         <v>2.1</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU27" t="n">
         <v>1.18</v>
@@ -6181,7 +6181,7 @@
         <v>0.8</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU28" t="n">
         <v>1.04</v>
@@ -7399,7 +7399,7 @@
         <v>2.78</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU34" t="n">
         <v>1.2</v>
@@ -8005,7 +8005,7 @@
         <v>0.5</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT37" t="n">
         <v>0.3</v>
@@ -8411,10 +8411,10 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU39" t="n">
         <v>1.39</v>
@@ -8614,7 +8614,7 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT40" t="n">
         <v>1.11</v>
@@ -9223,10 +9223,10 @@
         <v>2</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU43" t="n">
         <v>1.77</v>
@@ -9426,7 +9426,7 @@
         <v>1.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT44" t="n">
         <v>1.2</v>
@@ -9629,7 +9629,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT45" t="n">
         <v>0.8</v>
@@ -9835,7 +9835,7 @@
         <v>1.5</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU46" t="n">
         <v>1.52</v>
@@ -10444,7 +10444,7 @@
         <v>2.6</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU49" t="n">
         <v>1.49</v>
@@ -10850,7 +10850,7 @@
         <v>2.1</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU51" t="n">
         <v>1.47</v>
@@ -11459,7 +11459,7 @@
         <v>0.9</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU54" t="n">
         <v>1.57</v>
@@ -11862,10 +11862,10 @@
         <v>1.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU56" t="n">
         <v>1.46</v>
@@ -12471,7 +12471,7 @@
         <v>0.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT59" t="n">
         <v>0.8</v>
@@ -12877,7 +12877,7 @@
         <v>1.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT61" t="n">
         <v>0.6</v>
@@ -13080,10 +13080,10 @@
         <v>1.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU62" t="n">
         <v>1.91</v>
@@ -13286,7 +13286,7 @@
         <v>1.44</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU63" t="n">
         <v>2.19</v>
@@ -13692,7 +13692,7 @@
         <v>1.6</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU65" t="n">
         <v>1.4</v>
@@ -13895,7 +13895,7 @@
         <v>1.3</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU66" t="n">
         <v>1.43</v>
@@ -14095,7 +14095,7 @@
         <v>1.33</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT67" t="n">
         <v>1.5</v>
@@ -14298,7 +14298,7 @@
         <v>2</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT68" t="n">
         <v>1.2</v>
@@ -15722,7 +15722,7 @@
         <v>0.9</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU75" t="n">
         <v>1.59</v>
@@ -15922,10 +15922,10 @@
         <v>1.75</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU76" t="n">
         <v>1.77</v>
@@ -16125,7 +16125,7 @@
         <v>0.25</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT77" t="n">
         <v>0.8</v>
@@ -16331,7 +16331,7 @@
         <v>2.6</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU78" t="n">
         <v>1.47</v>
@@ -16531,7 +16531,7 @@
         <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT79" t="n">
         <v>1.11</v>
@@ -16937,7 +16937,7 @@
         <v>0</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT81" t="n">
         <v>0.3</v>
@@ -17143,7 +17143,7 @@
         <v>2.09</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU82" t="n">
         <v>2.17</v>
@@ -17549,7 +17549,7 @@
         <v>1.44</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU84" t="n">
         <v>1.62</v>
@@ -17952,7 +17952,7 @@
         <v>1.25</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT86" t="n">
         <v>1.5</v>
@@ -18561,7 +18561,7 @@
         <v>1.5</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT89" t="n">
         <v>1.4</v>
@@ -18767,7 +18767,7 @@
         <v>2.1</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU90" t="n">
         <v>1.78</v>
@@ -19170,7 +19170,7 @@
         <v>1.4</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT92" t="n">
         <v>1.2</v>
@@ -19376,7 +19376,7 @@
         <v>1.44</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU93" t="n">
         <v>1.99</v>
@@ -19779,7 +19779,7 @@
         <v>0.8</v>
       </c>
       <c r="AS95" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT95" t="n">
         <v>0.6</v>
@@ -21000,7 +21000,7 @@
         <v>2.6</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU101" t="n">
         <v>1.5</v>
@@ -21403,10 +21403,10 @@
         <v>1.4</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU103" t="n">
         <v>1.71</v>
@@ -21606,7 +21606,7 @@
         <v>0</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT104" t="n">
         <v>0.3</v>
@@ -21812,7 +21812,7 @@
         <v>1.3</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU105" t="n">
         <v>1.4</v>
@@ -22418,10 +22418,10 @@
         <v>0.25</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU108" t="n">
         <v>1.76</v>
@@ -22621,10 +22621,10 @@
         <v>1.5</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU109" t="n">
         <v>1.87</v>
@@ -23233,7 +23233,7 @@
         <v>1.56</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU112" t="n">
         <v>1.47</v>
@@ -24042,7 +24042,7 @@
         <v>0.17</v>
       </c>
       <c r="AS116" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT116" t="n">
         <v>0.8</v>
@@ -24654,7 +24654,7 @@
         <v>1.6</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU119" t="n">
         <v>1.46</v>
@@ -24854,10 +24854,10 @@
         <v>1.17</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU120" t="n">
         <v>1.49</v>
@@ -25260,7 +25260,7 @@
         <v>1.67</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT122" t="n">
         <v>1.4</v>
@@ -25872,7 +25872,7 @@
         <v>1.44</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU125" t="n">
         <v>1.47</v>
@@ -26275,7 +26275,7 @@
         <v>1.4</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT127" t="n">
         <v>1</v>
@@ -26478,10 +26478,10 @@
         <v>0.4</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU128" t="n">
         <v>2.02</v>
@@ -26681,7 +26681,7 @@
         <v>1</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT129" t="n">
         <v>1.11</v>
@@ -26887,7 +26887,7 @@
         <v>2.1</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU130" t="n">
         <v>1.66</v>
@@ -27899,7 +27899,7 @@
         <v>1.29</v>
       </c>
       <c r="AS135" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT135" t="n">
         <v>1.2</v>
@@ -28105,7 +28105,7 @@
         <v>1.5</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU136" t="n">
         <v>1.6</v>
@@ -28711,7 +28711,7 @@
         <v>1.14</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT139" t="n">
         <v>1.5</v>
@@ -28917,7 +28917,7 @@
         <v>1.56</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU140" t="n">
         <v>1.51</v>
@@ -29323,7 +29323,7 @@
         <v>2.1</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU142" t="n">
         <v>1.68</v>
@@ -29726,10 +29726,10 @@
         <v>0.5</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU144" t="n">
         <v>1.81</v>
@@ -29932,7 +29932,7 @@
         <v>1.44</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU145" t="n">
         <v>1.83</v>
@@ -30335,7 +30335,7 @@
         <v>1.83</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT147" t="n">
         <v>1.6</v>
@@ -30741,7 +30741,7 @@
         <v>0.83</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT149" t="n">
         <v>1.11</v>
@@ -31147,10 +31147,10 @@
         <v>1</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU151" t="n">
         <v>1.78</v>
@@ -31756,7 +31756,7 @@
         <v>1.13</v>
       </c>
       <c r="AS154" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT154" t="n">
         <v>1.5</v>
@@ -31962,7 +31962,7 @@
         <v>1.5</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU155" t="n">
         <v>1.62</v>
@@ -32368,7 +32368,7 @@
         <v>0.8</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU157" t="n">
         <v>1.49</v>
@@ -33177,7 +33177,7 @@
         <v>1.38</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT161" t="n">
         <v>1.4</v>
@@ -33583,7 +33583,7 @@
         <v>2.29</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT163" t="n">
         <v>2.22</v>
@@ -33786,7 +33786,7 @@
         <v>1.71</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT164" t="n">
         <v>1.6</v>
@@ -33992,7 +33992,7 @@
         <v>1.44</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU165" t="n">
         <v>1.47</v>
@@ -34192,7 +34192,7 @@
         <v>1.14</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT166" t="n">
         <v>1</v>
@@ -34398,7 +34398,7 @@
         <v>1.44</v>
       </c>
       <c r="AT167" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU167" t="n">
         <v>1.9</v>
@@ -34601,7 +34601,7 @@
         <v>2.78</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU168" t="n">
         <v>1.74</v>
@@ -35004,10 +35004,10 @@
         <v>1.86</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU170" t="n">
         <v>1.79</v>
@@ -35819,7 +35819,7 @@
         <v>1.5</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AU174" t="n">
         <v>1.44</v>
@@ -36022,7 +36022,7 @@
         <v>0.8</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU175" t="n">
         <v>1.53</v>
@@ -36222,7 +36222,7 @@
         <v>0.33</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AT176" t="n">
         <v>0.3</v>
@@ -37440,10 +37440,10 @@
         <v>1.13</v>
       </c>
       <c r="AS182" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU182" t="n">
         <v>1.21</v>
@@ -37646,7 +37646,7 @@
         <v>1.56</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU183" t="n">
         <v>1.53</v>
@@ -38252,10 +38252,10 @@
         <v>0.88</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU186" t="n">
         <v>1.75</v>
@@ -38661,7 +38661,7 @@
         <v>1.44</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AU188" t="n">
         <v>1.63</v>
@@ -38861,7 +38861,7 @@
         <v>2.13</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT189" t="n">
         <v>2.22</v>
@@ -39064,7 +39064,7 @@
         <v>1.13</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT190" t="n">
         <v>1.11</v>
@@ -39267,7 +39267,7 @@
         <v>1.22</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT191" t="n">
         <v>1.2</v>
@@ -39525,6 +39525,1224 @@
       </c>
       <c r="BK192" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5617300</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Romania Liga II</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>45003.25</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Brașov Steagul Renașt</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Energeticianul</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>1</v>
+      </c>
+      <c r="J193" t="n">
+        <v>1</v>
+      </c>
+      <c r="K193" t="n">
+        <v>2</v>
+      </c>
+      <c r="L193" t="n">
+        <v>3</v>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="n">
+        <v>4</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>['45', '62', '64']</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="Q193" t="n">
+        <v>4</v>
+      </c>
+      <c r="R193" t="n">
+        <v>2</v>
+      </c>
+      <c r="S193" t="n">
+        <v>6</v>
+      </c>
+      <c r="T193" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U193" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V193" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W193" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X193" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AD193" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE193" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI193" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AJ193" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK193" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL193" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM193" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN193" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO193" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP193" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ193" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AR193" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS193" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT193" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU193" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV193" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW193" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX193" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY193" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ193" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA193" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB193" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC193" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD193" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE193" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF193" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG193" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH193" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI193" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ193" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK193" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5617299</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Romania Liga II</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>45003.25</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Unirea Constanța</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Dumbrăviţa</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>1</v>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="n">
+        <v>0</v>
+      </c>
+      <c r="M194" t="n">
+        <v>2</v>
+      </c>
+      <c r="N194" t="n">
+        <v>2</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>['36', '86']</t>
+        </is>
+      </c>
+      <c r="Q194" t="n">
+        <v>0</v>
+      </c>
+      <c r="R194" t="n">
+        <v>10</v>
+      </c>
+      <c r="S194" t="n">
+        <v>10</v>
+      </c>
+      <c r="T194" t="n">
+        <v>9</v>
+      </c>
+      <c r="U194" t="n">
+        <v>3</v>
+      </c>
+      <c r="V194" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W194" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="X194" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI194" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AJ194" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AK194" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL194" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM194" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN194" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO194" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP194" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AQ194" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AR194" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AS194" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AT194" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AU194" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AV194" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW194" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AX194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE194" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF194" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG194" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH194" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI194" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ194" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK194" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5617298</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Romania Liga II</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>45003.25</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Ripensia Timişoara</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Concordia Chiajna</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="n">
+        <v>0</v>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="n">
+        <v>2</v>
+      </c>
+      <c r="N195" t="n">
+        <v>3</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>['54', '61']</t>
+        </is>
+      </c>
+      <c r="Q195" t="n">
+        <v>5</v>
+      </c>
+      <c r="R195" t="n">
+        <v>2</v>
+      </c>
+      <c r="S195" t="n">
+        <v>7</v>
+      </c>
+      <c r="T195" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U195" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V195" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W195" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X195" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI195" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ195" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK195" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL195" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM195" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN195" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AO195" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP195" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AQ195" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AR195" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS195" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AT195" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU195" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV195" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW195" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX195" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY195" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF195" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG195" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH195" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI195" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ195" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK195" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5617297</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Romania Liga II</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>45003.25</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>FCM Baia Mare</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>ASU Poli Timişoara</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>1</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="n">
+        <v>2</v>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="n">
+        <v>3</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>['10', '85']</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="Q196" t="n">
+        <v>7</v>
+      </c>
+      <c r="R196" t="n">
+        <v>3</v>
+      </c>
+      <c r="S196" t="n">
+        <v>10</v>
+      </c>
+      <c r="T196" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U196" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V196" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W196" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X196" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC196" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD196" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE196" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF196" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG196" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH196" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI196" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ196" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK196" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL196" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM196" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN196" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO196" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP196" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ196" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AR196" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AS196" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AT196" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AU196" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV196" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW196" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF196" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG196" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH196" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI196" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ196" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK196" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5617296</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Romania Liga II</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>45003.25</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Csikszereda</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Slatina</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
+        <v>0</v>
+      </c>
+      <c r="L197" t="n">
+        <v>2</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0</v>
+      </c>
+      <c r="N197" t="n">
+        <v>2</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>['56', '84']</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q197" t="n">
+        <v>7</v>
+      </c>
+      <c r="R197" t="n">
+        <v>4</v>
+      </c>
+      <c r="S197" t="n">
+        <v>11</v>
+      </c>
+      <c r="T197" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U197" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V197" t="n">
+        <v>6</v>
+      </c>
+      <c r="W197" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X197" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI197" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ197" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK197" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL197" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AM197" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN197" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO197" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP197" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ197" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AR197" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS197" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT197" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AU197" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV197" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW197" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ197" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA197" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB197" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC197" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD197" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE197" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF197" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG197" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH197" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI197" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ197" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK197" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5617295</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Romania Liga II</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>45003.25</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Unirea Slobozia</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Viitorul Şelimbăr</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>1</v>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="n">
+        <v>2</v>
+      </c>
+      <c r="M198" t="n">
+        <v>3</v>
+      </c>
+      <c r="N198" t="n">
+        <v>5</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>['59', '70']</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>['14', '47', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q198" t="n">
+        <v>8</v>
+      </c>
+      <c r="R198" t="n">
+        <v>5</v>
+      </c>
+      <c r="S198" t="n">
+        <v>13</v>
+      </c>
+      <c r="T198" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U198" t="n">
+        <v>2</v>
+      </c>
+      <c r="V198" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W198" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X198" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD198" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE198" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF198" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG198" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH198" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI198" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AJ198" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK198" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL198" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN198" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO198" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP198" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ198" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR198" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS198" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT198" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU198" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV198" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW198" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE198" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF198" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG198" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH198" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI198" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ198" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK198" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga II_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga II_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK200"/>
+  <dimension ref="A1:BK209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>1.55</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1.5</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT5" t="n">
         <v>1.27</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>2.1</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT9" t="n">
         <v>1.64</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT15" t="n">
         <v>1.6</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT16" t="n">
         <v>1</v>
@@ -3948,7 +3948,7 @@
         <v>1.3</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1.9</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>1.3</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU23" t="n">
         <v>0.9399999999999999</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT25" t="n">
         <v>1.64</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT28" t="n">
         <v>1.5</v>
@@ -6381,10 +6381,10 @@
         <v>3</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU29" t="n">
         <v>1.8</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU30" t="n">
         <v>1.33</v>
@@ -6790,7 +6790,7 @@
         <v>2.09</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU31" t="n">
         <v>2.68</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT33" t="n">
         <v>1</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT34" t="n">
         <v>1.9</v>
@@ -7599,10 +7599,10 @@
         <v>3</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU35" t="n">
         <v>1.68</v>
@@ -7802,10 +7802,10 @@
         <v>0.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU36" t="n">
         <v>1.72</v>
@@ -8008,7 +8008,7 @@
         <v>1.9</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU37" t="n">
         <v>1.84</v>
@@ -8617,7 +8617,7 @@
         <v>1.7</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU40" t="n">
         <v>1.62</v>
@@ -8817,10 +8817,10 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT41" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AU41" t="n">
         <v>2.11</v>
@@ -9429,7 +9429,7 @@
         <v>1.55</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU44" t="n">
         <v>1.59</v>
@@ -9832,7 +9832,7 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT46" t="n">
         <v>1.5</v>
@@ -10035,10 +10035,10 @@
         <v>0.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU47" t="n">
         <v>1.17</v>
@@ -10238,10 +10238,10 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU48" t="n">
         <v>1.43</v>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT49" t="n">
         <v>0.4</v>
@@ -10647,7 +10647,7 @@
         <v>1.3</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU50" t="n">
         <v>1.55</v>
@@ -11050,7 +11050,7 @@
         <v>2</v>
       </c>
       <c r="AS52" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT52" t="n">
         <v>1.11</v>
@@ -11256,7 +11256,7 @@
         <v>1.5</v>
       </c>
       <c r="AT53" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AU53" t="n">
         <v>1.63</v>
@@ -11456,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT54" t="n">
         <v>1</v>
@@ -12065,10 +12065,10 @@
         <v>1.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU57" t="n">
         <v>1.4</v>
@@ -12268,10 +12268,10 @@
         <v>0.33</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU58" t="n">
         <v>1.66</v>
@@ -12674,10 +12674,10 @@
         <v>2</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU60" t="n">
         <v>1.87</v>
@@ -12880,7 +12880,7 @@
         <v>1.7</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU61" t="n">
         <v>1.65</v>
@@ -13283,7 +13283,7 @@
         <v>1.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT63" t="n">
         <v>1.27</v>
@@ -13486,7 +13486,7 @@
         <v>3</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT64" t="n">
         <v>1</v>
@@ -13689,7 +13689,7 @@
         <v>0</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT65" t="n">
         <v>0.4</v>
@@ -14301,7 +14301,7 @@
         <v>1.3</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU68" t="n">
         <v>1.95</v>
@@ -14501,10 +14501,10 @@
         <v>0.33</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU69" t="n">
         <v>1.36</v>
@@ -14707,7 +14707,7 @@
         <v>2.1</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU70" t="n">
         <v>1.91</v>
@@ -14907,10 +14907,10 @@
         <v>0.25</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU71" t="n">
         <v>1.88</v>
@@ -15110,10 +15110,10 @@
         <v>1</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU72" t="n">
         <v>1.45</v>
@@ -15313,7 +15313,7 @@
         <v>2.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT73" t="n">
         <v>1.6</v>
@@ -15519,7 +15519,7 @@
         <v>1.5</v>
       </c>
       <c r="AT74" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AU74" t="n">
         <v>1.48</v>
@@ -15719,7 +15719,7 @@
         <v>2</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT75" t="n">
         <v>1.9</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT78" t="n">
         <v>1</v>
@@ -16534,7 +16534,7 @@
         <v>0.9</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU79" t="n">
         <v>1.34</v>
@@ -16737,7 +16737,7 @@
         <v>1.5</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU80" t="n">
         <v>1.54</v>
@@ -16940,7 +16940,7 @@
         <v>1.55</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU81" t="n">
         <v>1.65</v>
@@ -17546,7 +17546,7 @@
         <v>1.75</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT84" t="n">
         <v>1.27</v>
@@ -17749,10 +17749,10 @@
         <v>0.25</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU85" t="n">
         <v>1.46</v>
@@ -18155,10 +18155,10 @@
         <v>1.75</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU87" t="n">
         <v>1.71</v>
@@ -18358,7 +18358,7 @@
         <v>1.67</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT88" t="n">
         <v>1.11</v>
@@ -18564,7 +18564,7 @@
         <v>1.3</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU89" t="n">
         <v>2.11</v>
@@ -18970,7 +18970,7 @@
         <v>2.09</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU91" t="n">
         <v>2.06</v>
@@ -19173,7 +19173,7 @@
         <v>1.9</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU92" t="n">
         <v>1.66</v>
@@ -19373,7 +19373,7 @@
         <v>1.6</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT93" t="n">
         <v>1.27</v>
@@ -19576,7 +19576,7 @@
         <v>0.2</v>
       </c>
       <c r="AS94" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT94" t="n">
         <v>0.8</v>
@@ -19782,7 +19782,7 @@
         <v>0.9</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU95" t="n">
         <v>1.37</v>
@@ -19985,7 +19985,7 @@
         <v>1.5</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU96" t="n">
         <v>1.55</v>
@@ -20185,7 +20185,7 @@
         <v>2</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT97" t="n">
         <v>1.6</v>
@@ -20391,7 +20391,7 @@
         <v>1.5</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU98" t="n">
         <v>1.45</v>
@@ -20591,10 +20591,10 @@
         <v>0.75</v>
       </c>
       <c r="AS99" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU99" t="n">
         <v>1.54</v>
@@ -20794,10 +20794,10 @@
         <v>2.5</v>
       </c>
       <c r="AS100" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT100" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AU100" t="n">
         <v>1.46</v>
@@ -20997,7 +20997,7 @@
         <v>2.25</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT101" t="n">
         <v>1.9</v>
@@ -21200,7 +21200,7 @@
         <v>1</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT102" t="n">
         <v>1.64</v>
@@ -21609,7 +21609,7 @@
         <v>1.3</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU104" t="n">
         <v>1.91</v>
@@ -22012,10 +22012,10 @@
         <v>0.8</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU106" t="n">
         <v>1.43</v>
@@ -22215,10 +22215,10 @@
         <v>1.4</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU107" t="n">
         <v>1.51</v>
@@ -23433,10 +23433,10 @@
         <v>1.6</v>
       </c>
       <c r="AS113" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU113" t="n">
         <v>1.5</v>
@@ -23636,10 +23636,10 @@
         <v>0.67</v>
       </c>
       <c r="AS114" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU114" t="n">
         <v>1.52</v>
@@ -23842,7 +23842,7 @@
         <v>1.5</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU115" t="n">
         <v>1.51</v>
@@ -24245,10 +24245,10 @@
         <v>1.33</v>
       </c>
       <c r="AS117" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU117" t="n">
         <v>1.74</v>
@@ -24448,10 +24448,10 @@
         <v>2.6</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT118" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AU118" t="n">
         <v>1.41</v>
@@ -24651,7 +24651,7 @@
         <v>1.8</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT119" t="n">
         <v>1.9</v>
@@ -25057,10 +25057,10 @@
         <v>0.8</v>
       </c>
       <c r="AS121" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU121" t="n">
         <v>1.47</v>
@@ -25263,7 +25263,7 @@
         <v>1.7</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU122" t="n">
         <v>1.82</v>
@@ -25463,7 +25463,7 @@
         <v>0.83</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT123" t="n">
         <v>1.64</v>
@@ -25666,10 +25666,10 @@
         <v>0</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT124" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU124" t="n">
         <v>1.71</v>
@@ -25869,7 +25869,7 @@
         <v>1.2</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT125" t="n">
         <v>1.5</v>
@@ -26075,7 +26075,7 @@
         <v>1.3</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU126" t="n">
         <v>1.4</v>
@@ -27293,7 +27293,7 @@
         <v>1.3</v>
       </c>
       <c r="AT132" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AU132" t="n">
         <v>1.44</v>
@@ -27493,10 +27493,10 @@
         <v>0.29</v>
       </c>
       <c r="AS133" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU133" t="n">
         <v>1.48</v>
@@ -27696,10 +27696,10 @@
         <v>0.83</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU134" t="n">
         <v>1.59</v>
@@ -27902,7 +27902,7 @@
         <v>0.9</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU135" t="n">
         <v>1.31</v>
@@ -28305,7 +28305,7 @@
         <v>0.57</v>
       </c>
       <c r="AS137" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT137" t="n">
         <v>0.8</v>
@@ -28508,10 +28508,10 @@
         <v>1.83</v>
       </c>
       <c r="AS138" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT138" t="n">
         <v>1.5</v>
-      </c>
-      <c r="AT138" t="n">
-        <v>1.56</v>
       </c>
       <c r="AU138" t="n">
         <v>1.48</v>
@@ -29117,10 +29117,10 @@
         <v>0.71</v>
       </c>
       <c r="AS141" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU141" t="n">
         <v>1.44</v>
@@ -29523,10 +29523,10 @@
         <v>0.43</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU143" t="n">
         <v>1.78</v>
@@ -29929,7 +29929,7 @@
         <v>0.33</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT145" t="n">
         <v>0.4</v>
@@ -30132,7 +30132,7 @@
         <v>1.33</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT146" t="n">
         <v>1</v>
@@ -30538,10 +30538,10 @@
         <v>1.57</v>
       </c>
       <c r="AS148" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU148" t="n">
         <v>1.83</v>
@@ -30947,7 +30947,7 @@
         <v>2.09</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU150" t="n">
         <v>2.03</v>
@@ -31353,7 +31353,7 @@
         <v>2.09</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU152" t="n">
         <v>1.96</v>
@@ -31556,7 +31556,7 @@
         <v>1.3</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU153" t="n">
         <v>1.47</v>
@@ -32162,10 +32162,10 @@
         <v>1.5</v>
       </c>
       <c r="AS156" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU156" t="n">
         <v>1.5</v>
@@ -32365,7 +32365,7 @@
         <v>1.25</v>
       </c>
       <c r="AS157" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT157" t="n">
         <v>1.27</v>
@@ -32568,7 +32568,7 @@
         <v>0.88</v>
       </c>
       <c r="AS158" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT158" t="n">
         <v>0.8</v>
@@ -32771,10 +32771,10 @@
         <v>0.38</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU159" t="n">
         <v>1.4</v>
@@ -32974,10 +32974,10 @@
         <v>0.63</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT160" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU160" t="n">
         <v>1.63</v>
@@ -33180,7 +33180,7 @@
         <v>1.9</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU161" t="n">
         <v>1.67</v>
@@ -33383,7 +33383,7 @@
         <v>2.1</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU162" t="n">
         <v>1.66</v>
@@ -33586,7 +33586,7 @@
         <v>1.55</v>
       </c>
       <c r="AT163" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AU163" t="n">
         <v>1.81</v>
@@ -33989,7 +33989,7 @@
         <v>0.86</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT165" t="n">
         <v>1</v>
@@ -34395,7 +34395,7 @@
         <v>0.43</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT167" t="n">
         <v>0.4</v>
@@ -34598,7 +34598,7 @@
         <v>1.29</v>
       </c>
       <c r="AS168" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT168" t="n">
         <v>1.5</v>
@@ -34801,7 +34801,7 @@
         <v>1.14</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT169" t="n">
         <v>1.11</v>
@@ -35210,7 +35210,7 @@
         <v>1.5</v>
       </c>
       <c r="AT171" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU171" t="n">
         <v>1.53</v>
@@ -35410,10 +35410,10 @@
         <v>1.33</v>
       </c>
       <c r="AS172" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU172" t="n">
         <v>1.48</v>
@@ -35616,7 +35616,7 @@
         <v>1.3</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU173" t="n">
         <v>1.42</v>
@@ -35816,7 +35816,7 @@
         <v>1.22</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT174" t="n">
         <v>1.27</v>
@@ -36019,7 +36019,7 @@
         <v>1.11</v>
       </c>
       <c r="AS175" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AT175" t="n">
         <v>1.27</v>
@@ -36225,7 +36225,7 @@
         <v>1.9</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU176" t="n">
         <v>1.66</v>
@@ -36428,7 +36428,7 @@
         <v>1.5</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AU177" t="n">
         <v>1.65</v>
@@ -36628,7 +36628,7 @@
         <v>0.78</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT178" t="n">
         <v>0.8</v>
@@ -36831,7 +36831,7 @@
         <v>1.33</v>
       </c>
       <c r="AS179" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AT179" t="n">
         <v>1.64</v>
@@ -37037,7 +37037,7 @@
         <v>2.09</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="AU180" t="n">
         <v>1.89</v>
@@ -37240,7 +37240,7 @@
         <v>2.1</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU181" t="n">
         <v>1.66</v>
@@ -37846,7 +37846,7 @@
         <v>1.13</v>
       </c>
       <c r="AS184" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT184" t="n">
         <v>1</v>
@@ -38049,7 +38049,7 @@
         <v>1.13</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT185" t="n">
         <v>1.11</v>
@@ -38455,7 +38455,7 @@
         <v>1.88</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT187" t="n">
         <v>1.6</v>
@@ -38658,7 +38658,7 @@
         <v>2</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AT188" t="n">
         <v>1.9</v>
@@ -38864,7 +38864,7 @@
         <v>1.3</v>
       </c>
       <c r="AT189" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AU189" t="n">
         <v>1.76</v>
@@ -39067,7 +39067,7 @@
         <v>1.3</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU190" t="n">
         <v>1.71</v>
@@ -39270,7 +39270,7 @@
         <v>1.55</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU191" t="n">
         <v>1.77</v>
@@ -39470,10 +39470,10 @@
         <v>1.68</v>
       </c>
       <c r="AS192" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="AU192" t="n">
         <v>1.9</v>
@@ -39673,10 +39673,10 @@
         <v>1.32</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AU193" t="n">
         <v>1.66</v>
@@ -39876,10 +39876,10 @@
         <v>1.26</v>
       </c>
       <c r="AS194" t="n">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
       <c r="AU194" t="n">
         <v>1.21</v>
@@ -40079,7 +40079,7 @@
         <v>1.53</v>
       </c>
       <c r="AS195" t="n">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="AT195" t="n">
         <v>1.6</v>
@@ -40285,7 +40285,7 @@
         <v>0.95</v>
       </c>
       <c r="AT196" t="n">
-        <v>0.65</v>
+        <v>0.76</v>
       </c>
       <c r="AU196" t="n">
         <v>1.73</v>
@@ -40485,10 +40485,10 @@
         <v>1.42</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AU197" t="n">
         <v>1.79</v>
@@ -40688,7 +40688,7 @@
         <v>1.42</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AT198" t="n">
         <v>1.5</v>
@@ -40891,10 +40891,10 @@
         <v>1.63</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AU199" t="n">
         <v>1.54</v>
@@ -41094,10 +41094,10 @@
         <v>2.11</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="AT200" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AU200" t="n">
         <v>1.44</v>
@@ -41149,6 +41149,1833 @@
       </c>
       <c r="BK200" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5617282</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Romania Liga II</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>45015.58333333334</v>
+      </c>
+      <c r="F201" t="n">
+        <v>2</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Oţelul Galaţi</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>CSA Steaua Bucureşti</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>3</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="n">
+        <v>3</v>
+      </c>
+      <c r="L201" t="n">
+        <v>3</v>
+      </c>
+      <c r="M201" t="n">
+        <v>2</v>
+      </c>
+      <c r="N201" t="n">
+        <v>5</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>['14', '21', '32']</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>['51', '59']</t>
+        </is>
+      </c>
+      <c r="Q201" t="n">
+        <v>5</v>
+      </c>
+      <c r="R201" t="n">
+        <v>0</v>
+      </c>
+      <c r="S201" t="n">
+        <v>5</v>
+      </c>
+      <c r="T201" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U201" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V201" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W201" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X201" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN201" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO201" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP201" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ201" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR201" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AS201" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AT201" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AU201" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AW201" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE201" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF201" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG201" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH201" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI201" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ201" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK201" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5617280</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Romania Liga II</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>45016.5</v>
+      </c>
+      <c r="F202" t="n">
+        <v>2</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>CSM Iaşi</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>SCM Gloria Buzău</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>1</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="n">
+        <v>2</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>4</v>
+      </c>
+      <c r="R202" t="n">
+        <v>1</v>
+      </c>
+      <c r="S202" t="n">
+        <v>5</v>
+      </c>
+      <c r="T202" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U202" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="V202" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="W202" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X202" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE202" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF202" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG202" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH202" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI202" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ202" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK202" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5621976</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Romania Liga II</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>45017.20833333334</v>
+      </c>
+      <c r="F203" t="n">
+        <v>2</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Slatina</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Unirea Slobozia</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="n">
+        <v>0</v>
+      </c>
+      <c r="L203" t="n">
+        <v>0</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0</v>
+      </c>
+      <c r="N203" t="n">
+        <v>0</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>4</v>
+      </c>
+      <c r="R203" t="n">
+        <v>3</v>
+      </c>
+      <c r="S203" t="n">
+        <v>7</v>
+      </c>
+      <c r="T203" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U203" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V203" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W203" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X203" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF203" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG203" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH203" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI203" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ203" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK203" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5621974</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Romania Liga II</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>45017.20833333334</v>
+      </c>
+      <c r="F204" t="n">
+        <v>2</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Metaloglobus</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>FCM Baia Mare</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>0</v>
+      </c>
+      <c r="L204" t="n">
+        <v>0</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0</v>
+      </c>
+      <c r="N204" t="n">
+        <v>0</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q204" t="n">
+        <v>6</v>
+      </c>
+      <c r="R204" t="n">
+        <v>1</v>
+      </c>
+      <c r="S204" t="n">
+        <v>7</v>
+      </c>
+      <c r="T204" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U204" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V204" t="n">
+        <v>4</v>
+      </c>
+      <c r="W204" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X204" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL204" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN204" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO204" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP204" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AQ204" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR204" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AS204" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT204" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AU204" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF204" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG204" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH204" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI204" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ204" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK204" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5621992</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Romania Liga II</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>45017.20833333334</v>
+      </c>
+      <c r="F205" t="n">
+        <v>2</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Progresul Spartac</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Brașov Steagul Renașt</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>3</v>
+      </c>
+      <c r="K205" t="n">
+        <v>3</v>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="n">
+        <v>4</v>
+      </c>
+      <c r="N205" t="n">
+        <v>5</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>['4', '22', '39', '47']</t>
+        </is>
+      </c>
+      <c r="Q205" t="n">
+        <v>5</v>
+      </c>
+      <c r="R205" t="n">
+        <v>2</v>
+      </c>
+      <c r="S205" t="n">
+        <v>7</v>
+      </c>
+      <c r="T205" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U205" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V205" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W205" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X205" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF205" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG205" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH205" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI205" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ205" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK205" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5621993</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Romania Liga II</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>45017.20833333334</v>
+      </c>
+      <c r="F206" t="n">
+        <v>2</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Energeticianul</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Unirea Constanța</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>5</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="n">
+        <v>5</v>
+      </c>
+      <c r="L206" t="n">
+        <v>7</v>
+      </c>
+      <c r="M206" t="n">
+        <v>2</v>
+      </c>
+      <c r="N206" t="n">
+        <v>9</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>['6', '10', '12', '31', '38', '67', '82']</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>['59', '69']</t>
+        </is>
+      </c>
+      <c r="Q206" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R206" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S206" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T206" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U206" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="V206" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="W206" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X206" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AD206" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE206" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF206" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AJ206" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AK206" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AL206" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AM206" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN206" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO206" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP206" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AQ206" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR206" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AS206" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT206" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AU206" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW206" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ206" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA206" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB206" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC206" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD206" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE206" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF206" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG206" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH206" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI206" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ206" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK206" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5621994</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Romania Liga II</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>45017.20833333334</v>
+      </c>
+      <c r="F207" t="n">
+        <v>2</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Dumbrăviţa</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Ripensia Timişoara</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>1</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="n">
+        <v>2</v>
+      </c>
+      <c r="M207" t="n">
+        <v>0</v>
+      </c>
+      <c r="N207" t="n">
+        <v>2</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>['38', '46']</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q207" t="n">
+        <v>7</v>
+      </c>
+      <c r="R207" t="n">
+        <v>6</v>
+      </c>
+      <c r="S207" t="n">
+        <v>13</v>
+      </c>
+      <c r="T207" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U207" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V207" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="W207" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X207" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN207" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO207" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP207" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ207" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AR207" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AS207" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT207" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AU207" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV207" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW207" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ207" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA207" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB207" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC207" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD207" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE207" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF207" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG207" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH207" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI207" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ207" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK207" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5621975</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Romania Liga II</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>45018.20833333334</v>
+      </c>
+      <c r="F208" t="n">
+        <v>2</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>ASU Poli Timişoara</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Csikszereda</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>1</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="n">
+        <v>2</v>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="n">
+        <v>3</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>['14', '66']</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="Q208" t="n">
+        <v>2</v>
+      </c>
+      <c r="R208" t="n">
+        <v>7</v>
+      </c>
+      <c r="S208" t="n">
+        <v>9</v>
+      </c>
+      <c r="T208" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="U208" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V208" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W208" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X208" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE208" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ208" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK208" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AL208" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM208" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN208" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO208" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP208" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ208" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AR208" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS208" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AT208" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU208" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AW208" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX208" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY208" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ208" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA208" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB208" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC208" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD208" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE208" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF208" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG208" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH208" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI208" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ208" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK208" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5617281</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Romania Liga II</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>45018.41666666666</v>
+      </c>
+      <c r="F209" t="n">
+        <v>2</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>FC Unirea Dej</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Dinamo Bucureşti</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>2</v>
+      </c>
+      <c r="K209" t="n">
+        <v>2</v>
+      </c>
+      <c r="L209" t="n">
+        <v>0</v>
+      </c>
+      <c r="M209" t="n">
+        <v>3</v>
+      </c>
+      <c r="N209" t="n">
+        <v>3</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>['27', '30', '77']</t>
+        </is>
+      </c>
+      <c r="Q209" t="n">
+        <v>6</v>
+      </c>
+      <c r="R209" t="n">
+        <v>5</v>
+      </c>
+      <c r="S209" t="n">
+        <v>11</v>
+      </c>
+      <c r="T209" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="U209" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V209" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W209" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X209" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB209" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC209" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AD209" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE209" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF209" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG209" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH209" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI209" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ209" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AK209" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AL209" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AM209" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN209" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO209" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP209" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ209" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR209" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS209" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AT209" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AU209" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV209" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW209" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX209" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY209" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ209" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA209" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB209" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC209" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD209" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE209" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF209" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG209" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH209" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI209" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ209" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK209" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga II_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga II_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK209"/>
+  <dimension ref="A1:BK217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT3" t="n">
         <v>0.64</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT4" t="n">
         <v>1.36</v>
@@ -1512,7 +1512,7 @@
         <v>1.64</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT8" t="n">
         <v>0.27</v>
@@ -2730,7 +2730,7 @@
         <v>2.09</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT12" t="n">
         <v>1.9</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AU13" t="n">
         <v>1.12</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT14" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.6</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT17" t="n">
         <v>1.5</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -5366,10 +5366,10 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU24" t="n">
         <v>2.06</v>
@@ -5772,10 +5772,10 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU26" t="n">
         <v>1.68</v>
@@ -5975,10 +5975,10 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU27" t="n">
         <v>1.18</v>
@@ -6990,10 +6990,10 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU32" t="n">
         <v>1.41</v>
@@ -7196,7 +7196,7 @@
         <v>1.09</v>
       </c>
       <c r="AT33" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU33" t="n">
         <v>1.77</v>
@@ -8208,10 +8208,10 @@
         <v>3</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU38" t="n">
         <v>1.07</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT39" t="n">
         <v>1</v>
@@ -8614,7 +8614,7 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT40" t="n">
         <v>1.09</v>
@@ -9226,7 +9226,7 @@
         <v>1.3</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU43" t="n">
         <v>1.77</v>
@@ -9426,7 +9426,7 @@
         <v>1.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT44" t="n">
         <v>1.09</v>
@@ -9629,10 +9629,10 @@
         <v>0.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU45" t="n">
         <v>1.41</v>
@@ -10444,7 +10444,7 @@
         <v>2.42</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AU49" t="n">
         <v>1.49</v>
@@ -10644,7 +10644,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT50" t="n">
         <v>1.55</v>
@@ -10847,10 +10847,10 @@
         <v>2</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU51" t="n">
         <v>1.47</v>
@@ -11053,7 +11053,7 @@
         <v>0.73</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU52" t="n">
         <v>1.29</v>
@@ -11253,7 +11253,7 @@
         <v>3</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT53" t="n">
         <v>2</v>
@@ -11659,10 +11659,10 @@
         <v>3</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU55" t="n">
         <v>1.34</v>
@@ -11862,7 +11862,7 @@
         <v>1.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT56" t="n">
         <v>1.9</v>
@@ -12474,7 +12474,7 @@
         <v>1.9</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU59" t="n">
         <v>1.94</v>
@@ -12877,7 +12877,7 @@
         <v>1.33</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT61" t="n">
         <v>0.64</v>
@@ -13083,7 +13083,7 @@
         <v>1.3</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU62" t="n">
         <v>1.91</v>
@@ -13286,7 +13286,7 @@
         <v>1.4</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU63" t="n">
         <v>2.19</v>
@@ -13489,7 +13489,7 @@
         <v>1.64</v>
       </c>
       <c r="AT64" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU64" t="n">
         <v>1.5</v>
@@ -13692,7 +13692,7 @@
         <v>1.45</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AU65" t="n">
         <v>1.4</v>
@@ -13892,7 +13892,7 @@
         <v>1.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT66" t="n">
         <v>1.5</v>
@@ -14095,7 +14095,7 @@
         <v>1.33</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT67" t="n">
         <v>1.64</v>
@@ -14298,7 +14298,7 @@
         <v>2</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT68" t="n">
         <v>1.09</v>
@@ -14704,7 +14704,7 @@
         <v>2</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT70" t="n">
         <v>1.55</v>
@@ -15316,7 +15316,7 @@
         <v>0.73</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU73" t="n">
         <v>1.24</v>
@@ -15516,7 +15516,7 @@
         <v>3</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT74" t="n">
         <v>2</v>
@@ -15925,7 +15925,7 @@
         <v>1.9</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU76" t="n">
         <v>1.77</v>
@@ -16125,10 +16125,10 @@
         <v>0.25</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU77" t="n">
         <v>1.71</v>
@@ -16531,7 +16531,7 @@
         <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT79" t="n">
         <v>1.09</v>
@@ -16734,7 +16734,7 @@
         <v>2.33</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT80" t="n">
         <v>1.5</v>
@@ -16937,7 +16937,7 @@
         <v>0</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT81" t="n">
         <v>0.27</v>
@@ -17143,7 +17143,7 @@
         <v>2.09</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AU82" t="n">
         <v>2.17</v>
@@ -17343,10 +17343,10 @@
         <v>2</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT83" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU83" t="n">
         <v>1.52</v>
@@ -17549,7 +17549,7 @@
         <v>1.4</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU84" t="n">
         <v>1.62</v>
@@ -17952,7 +17952,7 @@
         <v>1.25</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT86" t="n">
         <v>1.64</v>
@@ -18361,7 +18361,7 @@
         <v>1.45</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU88" t="n">
         <v>1.45</v>
@@ -18764,7 +18764,7 @@
         <v>2</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT90" t="n">
         <v>1.5</v>
@@ -19376,7 +19376,7 @@
         <v>1.6</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU93" t="n">
         <v>1.99</v>
@@ -19579,7 +19579,7 @@
         <v>2.6</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU94" t="n">
         <v>1.75</v>
@@ -19779,7 +19779,7 @@
         <v>0.8</v>
       </c>
       <c r="AS95" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT95" t="n">
         <v>0.64</v>
@@ -19982,7 +19982,7 @@
         <v>1.75</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT96" t="n">
         <v>1.5</v>
@@ -20188,7 +20188,7 @@
         <v>1.64</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU97" t="n">
         <v>1.46</v>
@@ -20388,7 +20388,7 @@
         <v>0.2</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT98" t="n">
         <v>0.27</v>
@@ -21403,10 +21403,10 @@
         <v>1.4</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU103" t="n">
         <v>1.71</v>
@@ -21606,7 +21606,7 @@
         <v>0</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT104" t="n">
         <v>0.27</v>
@@ -21809,7 +21809,7 @@
         <v>0.75</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT105" t="n">
         <v>1</v>
@@ -22418,10 +22418,10 @@
         <v>0.25</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AU108" t="n">
         <v>1.76</v>
@@ -22824,10 +22824,10 @@
         <v>1.5</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT110" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU110" t="n">
         <v>1.66</v>
@@ -23030,7 +23030,7 @@
         <v>2.09</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU111" t="n">
         <v>2.25</v>
@@ -23230,10 +23230,10 @@
         <v>1.33</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU112" t="n">
         <v>1.47</v>
@@ -23839,7 +23839,7 @@
         <v>0.17</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT115" t="n">
         <v>0.27</v>
@@ -24042,10 +24042,10 @@
         <v>0.17</v>
       </c>
       <c r="AS116" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU116" t="n">
         <v>1.31</v>
@@ -24857,7 +24857,7 @@
         <v>1.9</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU120" t="n">
         <v>1.49</v>
@@ -25260,7 +25260,7 @@
         <v>1.67</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT122" t="n">
         <v>1.55</v>
@@ -26072,7 +26072,7 @@
         <v>0.67</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT126" t="n">
         <v>1.36</v>
@@ -26278,7 +26278,7 @@
         <v>1.3</v>
       </c>
       <c r="AT127" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU127" t="n">
         <v>1.84</v>
@@ -26478,10 +26478,10 @@
         <v>0.4</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AU128" t="n">
         <v>2.02</v>
@@ -26681,10 +26681,10 @@
         <v>1</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU129" t="n">
         <v>1.73</v>
@@ -26884,7 +26884,7 @@
         <v>0.6</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT130" t="n">
         <v>1</v>
@@ -27090,7 +27090,7 @@
         <v>2.09</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU131" t="n">
         <v>2.09</v>
@@ -27290,7 +27290,7 @@
         <v>2.17</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT132" t="n">
         <v>2</v>
@@ -27899,7 +27899,7 @@
         <v>1.29</v>
       </c>
       <c r="AS135" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT135" t="n">
         <v>1.09</v>
@@ -28102,10 +28102,10 @@
         <v>1.29</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU136" t="n">
         <v>1.6</v>
@@ -28308,7 +28308,7 @@
         <v>1.09</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU137" t="n">
         <v>1.54</v>
@@ -28914,10 +28914,10 @@
         <v>1</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU140" t="n">
         <v>1.51</v>
@@ -29320,7 +29320,7 @@
         <v>1.67</v>
       </c>
       <c r="AS142" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT142" t="n">
         <v>1.9</v>
@@ -29932,7 +29932,7 @@
         <v>1.4</v>
       </c>
       <c r="AT145" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AU145" t="n">
         <v>1.83</v>
@@ -30135,7 +30135,7 @@
         <v>1.4</v>
       </c>
       <c r="AT146" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU146" t="n">
         <v>1.5</v>
@@ -30335,10 +30335,10 @@
         <v>1.83</v>
       </c>
       <c r="AS147" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT147" t="n">
         <v>1.55</v>
-      </c>
-      <c r="AT147" t="n">
-        <v>1.6</v>
       </c>
       <c r="AU147" t="n">
         <v>1.71</v>
@@ -30741,10 +30741,10 @@
         <v>0.83</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU149" t="n">
         <v>1.93</v>
@@ -31147,7 +31147,7 @@
         <v>1</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT151" t="n">
         <v>1.5</v>
@@ -31553,7 +31553,7 @@
         <v>2</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT153" t="n">
         <v>1.5</v>
@@ -31756,7 +31756,7 @@
         <v>1.13</v>
       </c>
       <c r="AS154" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT154" t="n">
         <v>1.64</v>
@@ -31959,10 +31959,10 @@
         <v>0.88</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU155" t="n">
         <v>1.62</v>
@@ -32368,7 +32368,7 @@
         <v>0.73</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU157" t="n">
         <v>1.49</v>
@@ -32571,7 +32571,7 @@
         <v>2.42</v>
       </c>
       <c r="AT158" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU158" t="n">
         <v>1.44</v>
@@ -33380,7 +33380,7 @@
         <v>1.25</v>
       </c>
       <c r="AS162" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT162" t="n">
         <v>1.36</v>
@@ -33583,7 +33583,7 @@
         <v>2.29</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT163" t="n">
         <v>2</v>
@@ -33786,10 +33786,10 @@
         <v>1.71</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU164" t="n">
         <v>1.85</v>
@@ -34192,10 +34192,10 @@
         <v>1.14</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT166" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU166" t="n">
         <v>1.81</v>
@@ -34398,7 +34398,7 @@
         <v>1.6</v>
       </c>
       <c r="AT167" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AU167" t="n">
         <v>1.9</v>
@@ -34804,7 +34804,7 @@
         <v>1.4</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU169" t="n">
         <v>1.77</v>
@@ -35207,7 +35207,7 @@
         <v>0.38</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT171" t="n">
         <v>0.27</v>
@@ -35613,7 +35613,7 @@
         <v>0.33</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT173" t="n">
         <v>0.27</v>
@@ -35819,7 +35819,7 @@
         <v>1.64</v>
       </c>
       <c r="AT174" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU174" t="n">
         <v>1.44</v>
@@ -36022,7 +36022,7 @@
         <v>0.73</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU175" t="n">
         <v>1.53</v>
@@ -36425,7 +36425,7 @@
         <v>1.56</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT177" t="n">
         <v>1.55</v>
@@ -36631,7 +36631,7 @@
         <v>1.45</v>
       </c>
       <c r="AT178" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU178" t="n">
         <v>1.82</v>
@@ -37237,7 +37237,7 @@
         <v>1.75</v>
       </c>
       <c r="AS181" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AT181" t="n">
         <v>1.5</v>
@@ -37440,7 +37440,7 @@
         <v>1.13</v>
       </c>
       <c r="AS182" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT182" t="n">
         <v>1.5</v>
@@ -37643,10 +37643,10 @@
         <v>0.38</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.4</v>
+        <v>0.64</v>
       </c>
       <c r="AU183" t="n">
         <v>1.53</v>
@@ -37849,7 +37849,7 @@
         <v>2.6</v>
       </c>
       <c r="AT184" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AU184" t="n">
         <v>1.75</v>
@@ -38052,7 +38052,7 @@
         <v>1.6</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU185" t="n">
         <v>1.81</v>
@@ -38252,7 +38252,7 @@
         <v>0.88</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT186" t="n">
         <v>1</v>
@@ -38458,7 +38458,7 @@
         <v>1.4</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU187" t="n">
         <v>1.71</v>
@@ -38861,7 +38861,7 @@
         <v>2.13</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT189" t="n">
         <v>2</v>
@@ -39267,7 +39267,7 @@
         <v>1.22</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT191" t="n">
         <v>1.36</v>
@@ -39473,7 +39473,7 @@
         <v>2.05</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AU192" t="n">
         <v>1.9</v>
@@ -39676,7 +39676,7 @@
         <v>1.62</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AU193" t="n">
         <v>1.66</v>
@@ -39876,10 +39876,10 @@
         <v>1.26</v>
       </c>
       <c r="AS194" t="n">
-        <v>0.57</v>
+        <v>0.55</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AU194" t="n">
         <v>1.21</v>
@@ -40079,10 +40079,10 @@
         <v>1.53</v>
       </c>
       <c r="AS195" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AU195" t="n">
         <v>1.75</v>
@@ -40285,7 +40285,7 @@
         <v>0.95</v>
       </c>
       <c r="AT196" t="n">
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
       <c r="AU196" t="n">
         <v>1.73</v>
@@ -40485,10 +40485,10 @@
         <v>1.42</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AU197" t="n">
         <v>1.79</v>
@@ -40688,10 +40688,10 @@
         <v>1.42</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AU198" t="n">
         <v>1.72</v>
@@ -40891,10 +40891,10 @@
         <v>1.63</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="AU199" t="n">
         <v>1.54</v>
@@ -41094,7 +41094,7 @@
         <v>2.11</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.86</v>
+        <v>1.77</v>
       </c>
       <c r="AT200" t="n">
         <v>2.1</v>
@@ -41297,7 +41297,7 @@
         <v>2.15</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.86</v>
+        <v>1.77</v>
       </c>
       <c r="AT201" t="n">
         <v>2.05</v>
@@ -41503,7 +41503,7 @@
         <v>2.1</v>
       </c>
       <c r="AT202" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="AU202" t="n">
         <v>1.86</v>
@@ -41703,10 +41703,10 @@
         <v>1.55</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AU203" t="n">
         <v>1.63</v>
@@ -41906,7 +41906,7 @@
         <v>0.95</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AT204" t="n">
         <v>0.95</v>
@@ -42109,7 +42109,7 @@
         <v>1.55</v>
       </c>
       <c r="AS205" t="n">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="AT205" t="n">
         <v>1.62</v>
@@ -42312,10 +42312,10 @@
         <v>0.6</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AT206" t="n">
-        <v>0.57</v>
+        <v>0.55</v>
       </c>
       <c r="AU206" t="n">
         <v>1.44</v>
@@ -42515,10 +42515,10 @@
         <v>0.8</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="AT207" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="AU207" t="n">
         <v>1.74</v>
@@ -42718,10 +42718,10 @@
         <v>1.45</v>
       </c>
       <c r="AS208" t="n">
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="AU208" t="n">
         <v>1.55</v>
@@ -42921,10 +42921,10 @@
         <v>1.45</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AT209" t="n">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="AU209" t="n">
         <v>1.81</v>
@@ -42976,6 +42976,1630 @@
       </c>
       <c r="BK209" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5619927</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Romania Liga II</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>45023.60416666666</v>
+      </c>
+      <c r="F210" t="n">
+        <v>3</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Dinamo Bucureşti</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Oţelul Galaţi</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L210" t="n">
+        <v>3</v>
+      </c>
+      <c r="M210" t="n">
+        <v>0</v>
+      </c>
+      <c r="N210" t="n">
+        <v>3</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>['62', '87', '90+5']</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q210" t="n">
+        <v>7</v>
+      </c>
+      <c r="R210" t="n">
+        <v>3</v>
+      </c>
+      <c r="S210" t="n">
+        <v>10</v>
+      </c>
+      <c r="T210" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U210" t="n">
+        <v>2</v>
+      </c>
+      <c r="V210" t="n">
+        <v>4</v>
+      </c>
+      <c r="W210" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X210" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD210" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE210" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI210" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AJ210" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK210" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL210" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM210" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN210" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO210" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP210" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ210" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AR210" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AS210" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AT210" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AU210" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW210" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX210" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY210" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ210" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA210" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB210" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC210" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD210" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE210" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF210" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG210" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH210" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI210" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ210" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK210" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5621979</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Romania Liga II</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>45024.20833333334</v>
+      </c>
+      <c r="F211" t="n">
+        <v>3</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Csikszereda</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Metaloglobus</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>2</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="n">
+        <v>2</v>
+      </c>
+      <c r="L211" t="n">
+        <v>2</v>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="n">
+        <v>3</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>['13', '20']</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="Q211" t="n">
+        <v>10</v>
+      </c>
+      <c r="R211" t="n">
+        <v>6</v>
+      </c>
+      <c r="S211" t="n">
+        <v>16</v>
+      </c>
+      <c r="T211" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U211" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V211" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W211" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X211" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC211" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD211" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE211" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF211" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG211" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH211" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI211" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ211" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK211" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL211" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM211" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN211" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO211" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP211" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ211" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR211" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS211" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT211" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AU211" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV211" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW211" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX211" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY211" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ211" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA211" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB211" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC211" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD211" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE211" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF211" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG211" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH211" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI211" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ211" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK211" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5621995</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Romania Liga II</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>45024.20833333334</v>
+      </c>
+      <c r="F212" t="n">
+        <v>3</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Concordia Chiajna</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Dumbrăviţa</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>2</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="n">
+        <v>2</v>
+      </c>
+      <c r="L212" t="n">
+        <v>3</v>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="n">
+        <v>4</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>['30', '34', '85']</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="Q212" t="n">
+        <v>4</v>
+      </c>
+      <c r="R212" t="n">
+        <v>3</v>
+      </c>
+      <c r="S212" t="n">
+        <v>7</v>
+      </c>
+      <c r="T212" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U212" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V212" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W212" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X212" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y212" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z212" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB212" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC212" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD212" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE212" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF212" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG212" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH212" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI212" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AJ212" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK212" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL212" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM212" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN212" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO212" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP212" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ212" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR212" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS212" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT212" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AU212" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV212" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW212" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX212" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY212" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF212" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG212" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH212" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI212" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ212" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK212" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5621997</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Romania Liga II</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>45024.20833333334</v>
+      </c>
+      <c r="F213" t="n">
+        <v>3</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Unirea Constanța</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Progresul Spartac</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>4</v>
+      </c>
+      <c r="K213" t="n">
+        <v>4</v>
+      </c>
+      <c r="L213" t="n">
+        <v>0</v>
+      </c>
+      <c r="M213" t="n">
+        <v>9</v>
+      </c>
+      <c r="N213" t="n">
+        <v>9</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>['6', '29', '32', '33', '54', '57', '60', '79', '84']</t>
+        </is>
+      </c>
+      <c r="Q213" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R213" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S213" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T213" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="U213" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V213" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W213" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X213" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y213" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z213" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB213" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC213" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD213" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE213" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF213" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG213" t="n">
+        <v>30</v>
+      </c>
+      <c r="AH213" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AI213" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AJ213" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AK213" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AL213" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM213" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN213" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO213" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP213" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AQ213" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AR213" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AS213" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AT213" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AU213" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AV213" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW213" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AX213" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY213" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ213" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA213" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB213" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC213" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD213" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE213" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF213" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG213" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH213" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI213" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ213" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK213" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5621977</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Romania Liga II</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>45024.20833333334</v>
+      </c>
+      <c r="F214" t="n">
+        <v>3</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Viitorul Şelimbăr</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Slatina</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
+        <v>2</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="n">
+        <v>2</v>
+      </c>
+      <c r="L214" t="n">
+        <v>2</v>
+      </c>
+      <c r="M214" t="n">
+        <v>0</v>
+      </c>
+      <c r="N214" t="n">
+        <v>2</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>['19', '24']</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q214" t="n">
+        <v>2</v>
+      </c>
+      <c r="R214" t="n">
+        <v>2</v>
+      </c>
+      <c r="S214" t="n">
+        <v>4</v>
+      </c>
+      <c r="T214" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U214" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V214" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W214" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X214" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Y214" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z214" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA214" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB214" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC214" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD214" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE214" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF214" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG214" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH214" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI214" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ214" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK214" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL214" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM214" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN214" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO214" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP214" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ214" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR214" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS214" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT214" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AU214" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV214" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AW214" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE214" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF214" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG214" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH214" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI214" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ214" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK214" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5621978</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Romania Liga II</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>45024.20833333334</v>
+      </c>
+      <c r="F215" t="n">
+        <v>3</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Unirea Slobozia</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>ASU Poli Timişoara</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="n">
+        <v>1</v>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="n">
+        <v>2</v>
+      </c>
+      <c r="N215" t="n">
+        <v>3</v>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>['5', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q215" t="n">
+        <v>8</v>
+      </c>
+      <c r="R215" t="n">
+        <v>0</v>
+      </c>
+      <c r="S215" t="n">
+        <v>8</v>
+      </c>
+      <c r="T215" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U215" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V215" t="n">
+        <v>6</v>
+      </c>
+      <c r="W215" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X215" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y215" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z215" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA215" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB215" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC215" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AD215" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE215" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF215" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG215" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH215" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI215" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ215" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK215" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL215" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM215" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN215" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO215" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP215" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ215" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AR215" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AS215" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT215" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AU215" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV215" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW215" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX215" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY215" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ215" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA215" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB215" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC215" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD215" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE215" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF215" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG215" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH215" t="n">
+        <v>20</v>
+      </c>
+      <c r="BI215" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ215" t="n">
+        <v>25</v>
+      </c>
+      <c r="BK215" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5621996</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Romania Liga II</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>45024.20833333334</v>
+      </c>
+      <c r="F216" t="n">
+        <v>3</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Ripensia Timişoara</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Energeticianul</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>1</v>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="n">
+        <v>2</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>['45+1']</t>
+        </is>
+      </c>
+      <c r="Q216" t="n">
+        <v>4</v>
+      </c>
+      <c r="R216" t="n">
+        <v>3</v>
+      </c>
+      <c r="S216" t="n">
+        <v>7</v>
+      </c>
+      <c r="T216" t="n">
+        <v>3</v>
+      </c>
+      <c r="U216" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V216" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W216" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X216" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y216" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z216" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA216" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB216" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC216" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD216" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE216" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF216" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG216" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH216" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI216" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ216" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK216" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL216" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM216" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN216" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO216" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP216" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ216" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AR216" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS216" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AT216" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AU216" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV216" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW216" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX216" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY216" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ216" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA216" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB216" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC216" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD216" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE216" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF216" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG216" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH216" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI216" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ216" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK216" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5619928</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Romania Liga II</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>45024.27083333334</v>
+      </c>
+      <c r="F217" t="n">
+        <v>3</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>SCM Gloria Buzău</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>FC Unirea Dej</t>
+        </is>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="n">
+        <v>0</v>
+      </c>
+      <c r="L217" t="n">
+        <v>0</v>
+      </c>
+      <c r="M217" t="n">
+        <v>0</v>
+      </c>
+      <c r="N217" t="n">
+        <v>0</v>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q217" t="n">
+        <v>3</v>
+      </c>
+      <c r="R217" t="n">
+        <v>3</v>
+      </c>
+      <c r="S217" t="n">
+        <v>6</v>
+      </c>
+      <c r="T217" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U217" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V217" t="n">
+        <v>6</v>
+      </c>
+      <c r="W217" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X217" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y217" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z217" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA217" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB217" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC217" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD217" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE217" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF217" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG217" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH217" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI217" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ217" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK217" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL217" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM217" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN217" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO217" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP217" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ217" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR217" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS217" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT217" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU217" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV217" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW217" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX217" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY217" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ217" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA217" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB217" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC217" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD217" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE217" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF217" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG217" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH217" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI217" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ217" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK217" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
